--- a/public/storage/pruebas/files_up/conceptos8.xlsx
+++ b/public/storage/pruebas/files_up/conceptos8.xlsx
@@ -6307,7 +6307,7 @@
         <v>21</v>
       </c>
       <c r="H2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>21</v>
       </c>
       <c r="H3">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>21</v>
       </c>
       <c r="H4">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6430,7 +6430,7 @@
         <v>21</v>
       </c>
       <c r="H5">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6471,7 +6471,7 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6512,7 +6512,7 @@
         <v>21</v>
       </c>
       <c r="H7">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>21</v>
       </c>
       <c r="H8">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6594,7 +6594,7 @@
         <v>21</v>
       </c>
       <c r="H9">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6635,7 +6635,7 @@
         <v>21</v>
       </c>
       <c r="H10">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6676,7 +6676,7 @@
         <v>21</v>
       </c>
       <c r="H11">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -6717,7 +6717,7 @@
         <v>21</v>
       </c>
       <c r="H12">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -6758,7 +6758,7 @@
         <v>21</v>
       </c>
       <c r="H13">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6799,7 +6799,7 @@
         <v>21</v>
       </c>
       <c r="H14">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6840,7 +6840,7 @@
         <v>21</v>
       </c>
       <c r="H15">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6881,7 +6881,7 @@
         <v>21</v>
       </c>
       <c r="H16">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6922,7 +6922,7 @@
         <v>21</v>
       </c>
       <c r="H17">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6963,7 +6963,7 @@
         <v>21</v>
       </c>
       <c r="H18">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -7004,7 +7004,7 @@
         <v>21</v>
       </c>
       <c r="H19">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7045,7 +7045,7 @@
         <v>21</v>
       </c>
       <c r="H20">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7086,7 +7086,7 @@
         <v>21</v>
       </c>
       <c r="H21">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>21</v>
       </c>
       <c r="H22">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7168,7 +7168,7 @@
         <v>21</v>
       </c>
       <c r="H23">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7209,7 +7209,7 @@
         <v>21</v>
       </c>
       <c r="H24">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7250,7 +7250,7 @@
         <v>21</v>
       </c>
       <c r="H25">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7291,7 +7291,7 @@
         <v>21</v>
       </c>
       <c r="H26">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -7332,7 +7332,7 @@
         <v>21</v>
       </c>
       <c r="H27">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -7373,7 +7373,7 @@
         <v>21</v>
       </c>
       <c r="H28">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>21</v>
       </c>
       <c r="H29">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -7455,7 +7455,7 @@
         <v>21</v>
       </c>
       <c r="H30">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -7496,7 +7496,7 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -7537,7 +7537,7 @@
         <v>21</v>
       </c>
       <c r="H32">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7578,7 +7578,7 @@
         <v>21</v>
       </c>
       <c r="H33">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -7619,7 +7619,7 @@
         <v>21</v>
       </c>
       <c r="H34">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -7660,7 +7660,7 @@
         <v>21</v>
       </c>
       <c r="H35">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -7701,7 +7701,7 @@
         <v>21</v>
       </c>
       <c r="H36">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>21</v>
       </c>
       <c r="H37">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -7783,7 +7783,7 @@
         <v>21</v>
       </c>
       <c r="H38">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -7824,7 +7824,7 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -7865,7 +7865,7 @@
         <v>21</v>
       </c>
       <c r="H40">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -7906,7 +7906,7 @@
         <v>21</v>
       </c>
       <c r="H41">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7947,7 +7947,7 @@
         <v>21</v>
       </c>
       <c r="H42">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -7988,7 +7988,7 @@
         <v>21</v>
       </c>
       <c r="H43">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8029,7 +8029,7 @@
         <v>21</v>
       </c>
       <c r="H44">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8070,7 +8070,7 @@
         <v>21</v>
       </c>
       <c r="H45">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>21</v>
       </c>
       <c r="H46">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8152,7 +8152,7 @@
         <v>21</v>
       </c>
       <c r="H47">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8193,7 +8193,7 @@
         <v>21</v>
       </c>
       <c r="H48">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8234,7 +8234,7 @@
         <v>21</v>
       </c>
       <c r="H49">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8275,7 +8275,7 @@
         <v>21</v>
       </c>
       <c r="H50">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8316,7 +8316,7 @@
         <v>21</v>
       </c>
       <c r="H51">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8357,7 +8357,7 @@
         <v>21</v>
       </c>
       <c r="H52">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>21</v>
       </c>
       <c r="H53">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -8439,7 +8439,7 @@
         <v>21</v>
       </c>
       <c r="H54">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8480,7 +8480,7 @@
         <v>21</v>
       </c>
       <c r="H55">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -8521,7 +8521,7 @@
         <v>21</v>
       </c>
       <c r="H56">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -8562,7 +8562,7 @@
         <v>21</v>
       </c>
       <c r="H57">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -8603,7 +8603,7 @@
         <v>21</v>
       </c>
       <c r="H58">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>21</v>
       </c>
       <c r="H59">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         <v>21</v>
       </c>
       <c r="H60">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -8726,7 +8726,7 @@
         <v>21</v>
       </c>
       <c r="H61">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -8767,7 +8767,7 @@
         <v>21</v>
       </c>
       <c r="H62">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -8808,7 +8808,7 @@
         <v>21</v>
       </c>
       <c r="H63">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -8849,7 +8849,7 @@
         <v>21</v>
       </c>
       <c r="H64">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -8890,7 +8890,7 @@
         <v>21</v>
       </c>
       <c r="H65">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -8931,7 +8931,7 @@
         <v>21</v>
       </c>
       <c r="H66">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -8972,7 +8972,7 @@
         <v>21</v>
       </c>
       <c r="H67">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -9013,7 +9013,7 @@
         <v>21</v>
       </c>
       <c r="H68">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -9054,7 +9054,7 @@
         <v>21</v>
       </c>
       <c r="H69">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -9095,7 +9095,7 @@
         <v>21</v>
       </c>
       <c r="H70">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9136,7 +9136,7 @@
         <v>21</v>
       </c>
       <c r="H71">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -9177,7 +9177,7 @@
         <v>21</v>
       </c>
       <c r="H72">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -9218,7 +9218,7 @@
         <v>21</v>
       </c>
       <c r="H73">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -9259,7 +9259,7 @@
         <v>21</v>
       </c>
       <c r="H74">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -9300,7 +9300,7 @@
         <v>21</v>
       </c>
       <c r="H75">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -9341,7 +9341,7 @@
         <v>21</v>
       </c>
       <c r="H76">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -9382,7 +9382,7 @@
         <v>21</v>
       </c>
       <c r="H77">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>21</v>
       </c>
       <c r="H78">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -9464,7 +9464,7 @@
         <v>21</v>
       </c>
       <c r="H79">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -9505,7 +9505,7 @@
         <v>21</v>
       </c>
       <c r="H80">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>21</v>
       </c>
       <c r="H81">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -9587,7 +9587,7 @@
         <v>21</v>
       </c>
       <c r="H82">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -9628,7 +9628,7 @@
         <v>21</v>
       </c>
       <c r="H83">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -9669,7 +9669,7 @@
         <v>21</v>
       </c>
       <c r="H84">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -9710,7 +9710,7 @@
         <v>21</v>
       </c>
       <c r="H85">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -9751,7 +9751,7 @@
         <v>21</v>
       </c>
       <c r="H86">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>21</v>
       </c>
       <c r="H87">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -9833,7 +9833,7 @@
         <v>21</v>
       </c>
       <c r="H88">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -9874,7 +9874,7 @@
         <v>21</v>
       </c>
       <c r="H89">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -9915,7 +9915,7 @@
         <v>21</v>
       </c>
       <c r="H90">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -9956,7 +9956,7 @@
         <v>21</v>
       </c>
       <c r="H91">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>21</v>
       </c>
       <c r="H92">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>21</v>
       </c>
       <c r="H93">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -10079,7 +10079,7 @@
         <v>21</v>
       </c>
       <c r="H94">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -10120,7 +10120,7 @@
         <v>21</v>
       </c>
       <c r="H95">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -10161,7 +10161,7 @@
         <v>21</v>
       </c>
       <c r="H96">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -10202,7 +10202,7 @@
         <v>21</v>
       </c>
       <c r="H97">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -10243,7 +10243,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -10284,7 +10284,7 @@
         <v>21</v>
       </c>
       <c r="H99">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -10325,7 +10325,7 @@
         <v>21</v>
       </c>
       <c r="H100">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -10366,7 +10366,7 @@
         <v>21</v>
       </c>
       <c r="H101">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -10407,7 +10407,7 @@
         <v>21</v>
       </c>
       <c r="H102">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>21</v>
       </c>
       <c r="H103">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -10489,7 +10489,7 @@
         <v>21</v>
       </c>
       <c r="H104">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -10530,7 +10530,7 @@
         <v>21</v>
       </c>
       <c r="H105">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -10571,7 +10571,7 @@
         <v>21</v>
       </c>
       <c r="H106">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -10612,7 +10612,7 @@
         <v>21</v>
       </c>
       <c r="H107">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -10653,7 +10653,7 @@
         <v>21</v>
       </c>
       <c r="H108">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10694,7 +10694,7 @@
         <v>21</v>
       </c>
       <c r="H109">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -10735,7 +10735,7 @@
         <v>21</v>
       </c>
       <c r="H110">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -10776,7 +10776,7 @@
         <v>21</v>
       </c>
       <c r="H111">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -10817,7 +10817,7 @@
         <v>21</v>
       </c>
       <c r="H112">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -10858,7 +10858,7 @@
         <v>21</v>
       </c>
       <c r="H113">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -10899,7 +10899,7 @@
         <v>21</v>
       </c>
       <c r="H114">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>21</v>
       </c>
       <c r="H115">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10981,7 +10981,7 @@
         <v>21</v>
       </c>
       <c r="H116">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -11022,7 +11022,7 @@
         <v>21</v>
       </c>
       <c r="H117">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -11063,7 +11063,7 @@
         <v>21</v>
       </c>
       <c r="H118">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>21</v>
       </c>
       <c r="H119">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>21</v>
       </c>
       <c r="H120">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11186,7 +11186,7 @@
         <v>21</v>
       </c>
       <c r="H121">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11227,7 +11227,7 @@
         <v>21</v>
       </c>
       <c r="H122">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11268,7 +11268,7 @@
         <v>21</v>
       </c>
       <c r="H123">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11309,7 +11309,7 @@
         <v>21</v>
       </c>
       <c r="H124">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11350,7 +11350,7 @@
         <v>21</v>
       </c>
       <c r="H125">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -11391,7 +11391,7 @@
         <v>21</v>
       </c>
       <c r="H126">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11432,7 +11432,7 @@
         <v>21</v>
       </c>
       <c r="H127">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11473,7 +11473,7 @@
         <v>21</v>
       </c>
       <c r="H128">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11514,7 +11514,7 @@
         <v>6</v>
       </c>
       <c r="H129">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11555,7 +11555,7 @@
         <v>21</v>
       </c>
       <c r="H130">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -11596,7 +11596,7 @@
         <v>21</v>
       </c>
       <c r="H131">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         <v>4</v>
       </c>
       <c r="H132">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -11678,7 +11678,7 @@
         <v>10</v>
       </c>
       <c r="H133">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -11719,7 +11719,7 @@
         <v>21</v>
       </c>
       <c r="H134">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -11760,7 +11760,7 @@
         <v>21</v>
       </c>
       <c r="H135">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -11801,7 +11801,7 @@
         <v>4</v>
       </c>
       <c r="H136">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -11842,7 +11842,7 @@
         <v>21</v>
       </c>
       <c r="H137">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -11883,7 +11883,7 @@
         <v>10</v>
       </c>
       <c r="H138">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -11924,7 +11924,7 @@
         <v>21</v>
       </c>
       <c r="H139">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -12006,7 +12006,7 @@
         <v>10</v>
       </c>
       <c r="H141">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -12047,7 +12047,7 @@
         <v>3</v>
       </c>
       <c r="H142">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -12170,7 +12170,7 @@
         <v>4</v>
       </c>
       <c r="H145">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -12211,7 +12211,7 @@
         <v>21</v>
       </c>
       <c r="H146">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>21</v>
       </c>
       <c r="H148">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -12334,7 +12334,7 @@
         <v>5</v>
       </c>
       <c r="H149">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -12375,7 +12375,7 @@
         <v>5</v>
       </c>
       <c r="H150">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -12457,7 +12457,7 @@
         <v>6</v>
       </c>
       <c r="H152">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -12539,7 +12539,7 @@
         <v>8</v>
       </c>
       <c r="H154">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -12621,7 +12621,7 @@
         <v>10</v>
       </c>
       <c r="H156">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -12703,7 +12703,7 @@
         <v>21</v>
       </c>
       <c r="H158">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -12785,7 +12785,7 @@
         <v>3</v>
       </c>
       <c r="H160">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -12826,7 +12826,7 @@
         <v>5</v>
       </c>
       <c r="H161">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -12867,7 +12867,7 @@
         <v>10</v>
       </c>
       <c r="H162">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -12908,7 +12908,7 @@
         <v>21</v>
       </c>
       <c r="H163">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -12949,7 +12949,7 @@
         <v>21</v>
       </c>
       <c r="H164">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -12990,7 +12990,7 @@
         <v>21</v>
       </c>
       <c r="H165">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -13031,7 +13031,7 @@
         <v>21</v>
       </c>
       <c r="H166">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -13072,7 +13072,7 @@
         <v>10</v>
       </c>
       <c r="H167">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -13113,7 +13113,7 @@
         <v>4</v>
       </c>
       <c r="H168">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -13154,7 +13154,7 @@
         <v>6</v>
       </c>
       <c r="H169">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -13195,7 +13195,7 @@
         <v>10</v>
       </c>
       <c r="H170">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -13236,7 +13236,7 @@
         <v>6</v>
       </c>
       <c r="H171">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -13277,7 +13277,7 @@
         <v>21</v>
       </c>
       <c r="H172">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -13318,7 +13318,7 @@
         <v>21</v>
       </c>
       <c r="H173">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -13359,7 +13359,7 @@
         <v>21</v>
       </c>
       <c r="H174">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -13441,7 +13441,7 @@
         <v>10</v>
       </c>
       <c r="H176">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -13482,7 +13482,7 @@
         <v>21</v>
       </c>
       <c r="H177">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -13523,7 +13523,7 @@
         <v>21</v>
       </c>
       <c r="H178">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -13564,7 +13564,7 @@
         <v>21</v>
       </c>
       <c r="H179">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -13605,7 +13605,7 @@
         <v>21</v>
       </c>
       <c r="H180">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -13646,7 +13646,7 @@
         <v>10</v>
       </c>
       <c r="H181">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -13687,7 +13687,7 @@
         <v>21</v>
       </c>
       <c r="H182">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -13728,7 +13728,7 @@
         <v>3</v>
       </c>
       <c r="H183">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -13769,7 +13769,7 @@
         <v>6</v>
       </c>
       <c r="H184">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -13810,7 +13810,7 @@
         <v>21</v>
       </c>
       <c r="H185">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -13851,7 +13851,7 @@
         <v>10</v>
       </c>
       <c r="H186">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -13933,7 +13933,7 @@
         <v>6</v>
       </c>
       <c r="H188">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -13974,7 +13974,7 @@
         <v>9</v>
       </c>
       <c r="H189">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -14015,7 +14015,7 @@
         <v>9</v>
       </c>
       <c r="H190">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -14097,7 +14097,7 @@
         <v>21</v>
       </c>
       <c r="H192">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -14138,7 +14138,7 @@
         <v>21</v>
       </c>
       <c r="H193">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -14179,7 +14179,7 @@
         <v>21</v>
       </c>
       <c r="H194">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -14220,7 +14220,7 @@
         <v>21</v>
       </c>
       <c r="H195">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -14261,7 +14261,7 @@
         <v>8</v>
       </c>
       <c r="H196">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -14302,7 +14302,7 @@
         <v>10</v>
       </c>
       <c r="H197">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>6</v>
       </c>
       <c r="H198">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -14425,7 +14425,7 @@
         <v>10</v>
       </c>
       <c r="H200">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -14466,7 +14466,7 @@
         <v>21</v>
       </c>
       <c r="H201">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -14507,7 +14507,7 @@
         <v>21</v>
       </c>
       <c r="H202">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -14548,7 +14548,7 @@
         <v>21</v>
       </c>
       <c r="H203">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>10</v>
       </c>
       <c r="H204">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -14630,7 +14630,7 @@
         <v>21</v>
       </c>
       <c r="H205">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -14671,7 +14671,7 @@
         <v>21</v>
       </c>
       <c r="H206">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -14712,7 +14712,7 @@
         <v>10</v>
       </c>
       <c r="H207">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -14753,7 +14753,7 @@
         <v>3</v>
       </c>
       <c r="H208">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -14794,7 +14794,7 @@
         <v>21</v>
       </c>
       <c r="H209">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -14835,7 +14835,7 @@
         <v>21</v>
       </c>
       <c r="H210">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -14876,7 +14876,7 @@
         <v>21</v>
       </c>
       <c r="H211">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -14917,7 +14917,7 @@
         <v>21</v>
       </c>
       <c r="H212">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -14958,7 +14958,7 @@
         <v>10</v>
       </c>
       <c r="H213">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -14999,7 +14999,7 @@
         <v>2</v>
       </c>
       <c r="H214">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -15040,7 +15040,7 @@
         <v>21</v>
       </c>
       <c r="H215">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -15081,7 +15081,7 @@
         <v>8</v>
       </c>
       <c r="H216">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -15122,7 +15122,7 @@
         <v>21</v>
       </c>
       <c r="H217">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -15163,7 +15163,7 @@
         <v>8</v>
       </c>
       <c r="H218">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -15204,7 +15204,7 @@
         <v>4</v>
       </c>
       <c r="H219">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -15245,7 +15245,7 @@
         <v>21</v>
       </c>
       <c r="H220">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -15286,7 +15286,7 @@
         <v>10</v>
       </c>
       <c r="H221">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -15327,7 +15327,7 @@
         <v>10</v>
       </c>
       <c r="H222">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -15368,7 +15368,7 @@
         <v>10</v>
       </c>
       <c r="H223">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -15450,7 +15450,7 @@
         <v>8</v>
       </c>
       <c r="H225">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>8</v>
       </c>
       <c r="H226">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -15532,7 +15532,7 @@
         <v>8</v>
       </c>
       <c r="H227">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -15573,7 +15573,7 @@
         <v>21</v>
       </c>
       <c r="H228">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -15614,7 +15614,7 @@
         <v>6</v>
       </c>
       <c r="H229">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -15655,7 +15655,7 @@
         <v>6</v>
       </c>
       <c r="H230">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -15696,7 +15696,7 @@
         <v>10</v>
       </c>
       <c r="H231">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -15778,7 +15778,7 @@
         <v>10</v>
       </c>
       <c r="H233">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -15819,7 +15819,7 @@
         <v>10</v>
       </c>
       <c r="H234">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -15860,7 +15860,7 @@
         <v>21</v>
       </c>
       <c r="H235">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -15901,7 +15901,7 @@
         <v>10</v>
       </c>
       <c r="H236">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -15942,7 +15942,7 @@
         <v>10</v>
       </c>
       <c r="H237">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -15983,7 +15983,7 @@
         <v>10</v>
       </c>
       <c r="H238">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -16024,7 +16024,7 @@
         <v>8</v>
       </c>
       <c r="H239">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -16065,7 +16065,7 @@
         <v>21</v>
       </c>
       <c r="H240">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -16106,7 +16106,7 @@
         <v>21</v>
       </c>
       <c r="H241">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -16147,7 +16147,7 @@
         <v>21</v>
       </c>
       <c r="H242">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -16188,7 +16188,7 @@
         <v>21</v>
       </c>
       <c r="H243">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -16229,7 +16229,7 @@
         <v>21</v>
       </c>
       <c r="H244">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -16270,7 +16270,7 @@
         <v>21</v>
       </c>
       <c r="H245">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -16311,7 +16311,7 @@
         <v>21</v>
       </c>
       <c r="H246">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -16352,7 +16352,7 @@
         <v>21</v>
       </c>
       <c r="H247">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -16393,7 +16393,7 @@
         <v>21</v>
       </c>
       <c r="H248">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -16434,7 +16434,7 @@
         <v>21</v>
       </c>
       <c r="H249">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -16475,7 +16475,7 @@
         <v>21</v>
       </c>
       <c r="H250">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -16516,7 +16516,7 @@
         <v>21</v>
       </c>
       <c r="H251">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -16557,7 +16557,7 @@
         <v>21</v>
       </c>
       <c r="H252">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -16598,7 +16598,7 @@
         <v>21</v>
       </c>
       <c r="H253">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -16639,7 +16639,7 @@
         <v>21</v>
       </c>
       <c r="H254">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -16680,7 +16680,7 @@
         <v>21</v>
       </c>
       <c r="H255">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -16721,7 +16721,7 @@
         <v>21</v>
       </c>
       <c r="H256">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -16762,7 +16762,7 @@
         <v>21</v>
       </c>
       <c r="H257">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -16803,7 +16803,7 @@
         <v>21</v>
       </c>
       <c r="H258">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -16844,7 +16844,7 @@
         <v>21</v>
       </c>
       <c r="H259">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -16885,7 +16885,7 @@
         <v>21</v>
       </c>
       <c r="H260">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -16926,7 +16926,7 @@
         <v>21</v>
       </c>
       <c r="H261">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -16967,7 +16967,7 @@
         <v>21</v>
       </c>
       <c r="H262">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -17008,7 +17008,7 @@
         <v>21</v>
       </c>
       <c r="H263">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -17049,7 +17049,7 @@
         <v>21</v>
       </c>
       <c r="H264">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -17090,7 +17090,7 @@
         <v>21</v>
       </c>
       <c r="H265">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -17131,7 +17131,7 @@
         <v>21</v>
       </c>
       <c r="H266">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -17172,7 +17172,7 @@
         <v>21</v>
       </c>
       <c r="H267">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -17213,7 +17213,7 @@
         <v>21</v>
       </c>
       <c r="H268">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -17254,7 +17254,7 @@
         <v>21</v>
       </c>
       <c r="H269">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -17295,7 +17295,7 @@
         <v>21</v>
       </c>
       <c r="H270">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -17336,7 +17336,7 @@
         <v>21</v>
       </c>
       <c r="H271">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -17377,7 +17377,7 @@
         <v>21</v>
       </c>
       <c r="H272">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -17418,7 +17418,7 @@
         <v>21</v>
       </c>
       <c r="H273">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -17459,7 +17459,7 @@
         <v>21</v>
       </c>
       <c r="H274">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I274">
         <v>1</v>
@@ -17500,7 +17500,7 @@
         <v>21</v>
       </c>
       <c r="H275">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         <v>21</v>
       </c>
       <c r="H276">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -17582,7 +17582,7 @@
         <v>21</v>
       </c>
       <c r="H277">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -17623,7 +17623,7 @@
         <v>21</v>
       </c>
       <c r="H278">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -17664,7 +17664,7 @@
         <v>21</v>
       </c>
       <c r="H279">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I279">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>21</v>
       </c>
       <c r="H280">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I280">
         <v>1</v>
@@ -17746,7 +17746,7 @@
         <v>21</v>
       </c>
       <c r="H281">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -17787,7 +17787,7 @@
         <v>21</v>
       </c>
       <c r="H282">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -17828,7 +17828,7 @@
         <v>21</v>
       </c>
       <c r="H283">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -17869,7 +17869,7 @@
         <v>21</v>
       </c>
       <c r="H284">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I284">
         <v>1</v>
@@ -17910,7 +17910,7 @@
         <v>21</v>
       </c>
       <c r="H285">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I285">
         <v>1</v>
@@ -17951,7 +17951,7 @@
         <v>21</v>
       </c>
       <c r="H286">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I286">
         <v>1</v>
@@ -17992,7 +17992,7 @@
         <v>21</v>
       </c>
       <c r="H287">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>21</v>
       </c>
       <c r="H288">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I288">
         <v>1</v>
@@ -18074,7 +18074,7 @@
         <v>21</v>
       </c>
       <c r="H289">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I289">
         <v>1</v>
@@ -18115,7 +18115,7 @@
         <v>21</v>
       </c>
       <c r="H290">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I290">
         <v>1</v>
@@ -18156,7 +18156,7 @@
         <v>21</v>
       </c>
       <c r="H291">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -18197,7 +18197,7 @@
         <v>21</v>
       </c>
       <c r="H292">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -18238,7 +18238,7 @@
         <v>21</v>
       </c>
       <c r="H293">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -18279,7 +18279,7 @@
         <v>21</v>
       </c>
       <c r="H294">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -18320,7 +18320,7 @@
         <v>21</v>
       </c>
       <c r="H295">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>21</v>
       </c>
       <c r="H296">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I296">
         <v>1</v>
@@ -18402,7 +18402,7 @@
         <v>21</v>
       </c>
       <c r="H297">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I297">
         <v>1</v>
@@ -18443,7 +18443,7 @@
         <v>21</v>
       </c>
       <c r="H298">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -18484,7 +18484,7 @@
         <v>21</v>
       </c>
       <c r="H299">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -18525,7 +18525,7 @@
         <v>21</v>
       </c>
       <c r="H300">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I300">
         <v>1</v>
@@ -18566,7 +18566,7 @@
         <v>21</v>
       </c>
       <c r="H301">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -18607,7 +18607,7 @@
         <v>21</v>
       </c>
       <c r="H302">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I302">
         <v>1</v>
@@ -18648,7 +18648,7 @@
         <v>21</v>
       </c>
       <c r="H303">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -18689,7 +18689,7 @@
         <v>21</v>
       </c>
       <c r="H304">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -18730,7 +18730,7 @@
         <v>21</v>
       </c>
       <c r="H305">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I305">
         <v>1</v>
@@ -18771,7 +18771,7 @@
         <v>21</v>
       </c>
       <c r="H306">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I306">
         <v>1</v>
@@ -18812,7 +18812,7 @@
         <v>21</v>
       </c>
       <c r="H307">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -18853,7 +18853,7 @@
         <v>21</v>
       </c>
       <c r="H308">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -18894,7 +18894,7 @@
         <v>21</v>
       </c>
       <c r="H309">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -18935,7 +18935,7 @@
         <v>21</v>
       </c>
       <c r="H310">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I310">
         <v>1</v>
@@ -18976,7 +18976,7 @@
         <v>21</v>
       </c>
       <c r="H311">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -19017,7 +19017,7 @@
         <v>21</v>
       </c>
       <c r="H312">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I312">
         <v>1</v>
@@ -19058,7 +19058,7 @@
         <v>21</v>
       </c>
       <c r="H313">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I313">
         <v>1</v>
@@ -19099,7 +19099,7 @@
         <v>21</v>
       </c>
       <c r="H314">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I314">
         <v>1</v>
@@ -19140,7 +19140,7 @@
         <v>21</v>
       </c>
       <c r="H315">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I315">
         <v>1</v>
@@ -19181,7 +19181,7 @@
         <v>21</v>
       </c>
       <c r="H316">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I316">
         <v>1</v>
@@ -19222,7 +19222,7 @@
         <v>21</v>
       </c>
       <c r="H317">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I317">
         <v>1</v>
@@ -19263,7 +19263,7 @@
         <v>21</v>
       </c>
       <c r="H318">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I318">
         <v>1</v>
@@ -19304,7 +19304,7 @@
         <v>21</v>
       </c>
       <c r="H319">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I319">
         <v>1</v>
@@ -19345,7 +19345,7 @@
         <v>21</v>
       </c>
       <c r="H320">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I320">
         <v>1</v>
@@ -19386,7 +19386,7 @@
         <v>21</v>
       </c>
       <c r="H321">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I321">
         <v>1</v>
@@ -19427,7 +19427,7 @@
         <v>21</v>
       </c>
       <c r="H322">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -19468,7 +19468,7 @@
         <v>21</v>
       </c>
       <c r="H323">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -19509,7 +19509,7 @@
         <v>21</v>
       </c>
       <c r="H324">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I324">
         <v>1</v>
@@ -19550,7 +19550,7 @@
         <v>21</v>
       </c>
       <c r="H325">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I325">
         <v>1</v>
@@ -19591,7 +19591,7 @@
         <v>21</v>
       </c>
       <c r="H326">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I326">
         <v>1</v>
@@ -19632,7 +19632,7 @@
         <v>21</v>
       </c>
       <c r="H327">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I327">
         <v>1</v>
@@ -19673,7 +19673,7 @@
         <v>21</v>
       </c>
       <c r="H328">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I328">
         <v>1</v>
@@ -19714,7 +19714,7 @@
         <v>21</v>
       </c>
       <c r="H329">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -19755,7 +19755,7 @@
         <v>21</v>
       </c>
       <c r="H330">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I330">
         <v>1</v>
@@ -19796,7 +19796,7 @@
         <v>21</v>
       </c>
       <c r="H331">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I331">
         <v>1</v>
@@ -19837,7 +19837,7 @@
         <v>21</v>
       </c>
       <c r="H332">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I332">
         <v>1</v>
@@ -19878,7 +19878,7 @@
         <v>21</v>
       </c>
       <c r="H333">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I333">
         <v>1</v>
@@ -19919,7 +19919,7 @@
         <v>21</v>
       </c>
       <c r="H334">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I334">
         <v>1</v>
@@ -19960,7 +19960,7 @@
         <v>21</v>
       </c>
       <c r="H335">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I335">
         <v>1</v>
@@ -20001,7 +20001,7 @@
         <v>21</v>
       </c>
       <c r="H336">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I336">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>21</v>
       </c>
       <c r="H337">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I337">
         <v>1</v>
@@ -20083,7 +20083,7 @@
         <v>21</v>
       </c>
       <c r="H338">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I338">
         <v>1</v>
@@ -20124,7 +20124,7 @@
         <v>21</v>
       </c>
       <c r="H339">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I339">
         <v>1</v>
@@ -20165,7 +20165,7 @@
         <v>21</v>
       </c>
       <c r="H340">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I340">
         <v>1</v>
@@ -20206,7 +20206,7 @@
         <v>21</v>
       </c>
       <c r="H341">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I341">
         <v>1</v>
@@ -20247,7 +20247,7 @@
         <v>21</v>
       </c>
       <c r="H342">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I342">
         <v>1</v>
@@ -20288,7 +20288,7 @@
         <v>21</v>
       </c>
       <c r="H343">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I343">
         <v>1</v>
@@ -20329,7 +20329,7 @@
         <v>21</v>
       </c>
       <c r="H344">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I344">
         <v>1</v>
@@ -20370,7 +20370,7 @@
         <v>21</v>
       </c>
       <c r="H345">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I345">
         <v>1</v>
@@ -20411,7 +20411,7 @@
         <v>21</v>
       </c>
       <c r="H346">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I346">
         <v>1</v>
@@ -20452,7 +20452,7 @@
         <v>21</v>
       </c>
       <c r="H347">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I347">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         <v>21</v>
       </c>
       <c r="H348">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I348">
         <v>1</v>
@@ -20534,7 +20534,7 @@
         <v>21</v>
       </c>
       <c r="H349">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I349">
         <v>1</v>
@@ -20575,7 +20575,7 @@
         <v>21</v>
       </c>
       <c r="H350">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I350">
         <v>1</v>
@@ -20616,7 +20616,7 @@
         <v>21</v>
       </c>
       <c r="H351">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I351">
         <v>1</v>
@@ -20657,7 +20657,7 @@
         <v>21</v>
       </c>
       <c r="H352">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I352">
         <v>1</v>
@@ -20698,7 +20698,7 @@
         <v>21</v>
       </c>
       <c r="H353">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I353">
         <v>1</v>
@@ -20739,7 +20739,7 @@
         <v>21</v>
       </c>
       <c r="H354">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I354">
         <v>1</v>
@@ -20780,7 +20780,7 @@
         <v>21</v>
       </c>
       <c r="H355">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I355">
         <v>1</v>
@@ -20821,7 +20821,7 @@
         <v>21</v>
       </c>
       <c r="H356">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I356">
         <v>1</v>
@@ -20862,7 +20862,7 @@
         <v>21</v>
       </c>
       <c r="H357">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -20903,7 +20903,7 @@
         <v>21</v>
       </c>
       <c r="H358">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I358">
         <v>1</v>
@@ -20944,7 +20944,7 @@
         <v>21</v>
       </c>
       <c r="H359">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I359">
         <v>1</v>
@@ -20985,7 +20985,7 @@
         <v>21</v>
       </c>
       <c r="H360">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I360">
         <v>1</v>
@@ -21026,7 +21026,7 @@
         <v>21</v>
       </c>
       <c r="H361">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I361">
         <v>1</v>
@@ -21067,7 +21067,7 @@
         <v>21</v>
       </c>
       <c r="H362">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I362">
         <v>1</v>
@@ -21108,7 +21108,7 @@
         <v>21</v>
       </c>
       <c r="H363">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I363">
         <v>1</v>
@@ -21149,7 +21149,7 @@
         <v>21</v>
       </c>
       <c r="H364">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -21190,7 +21190,7 @@
         <v>21</v>
       </c>
       <c r="H365">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I365">
         <v>1</v>
@@ -21231,7 +21231,7 @@
         <v>21</v>
       </c>
       <c r="H366">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I366">
         <v>1</v>
@@ -21272,7 +21272,7 @@
         <v>21</v>
       </c>
       <c r="H367">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I367">
         <v>1</v>
@@ -21313,7 +21313,7 @@
         <v>21</v>
       </c>
       <c r="H368">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I368">
         <v>1</v>
@@ -21354,7 +21354,7 @@
         <v>21</v>
       </c>
       <c r="H369">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I369">
         <v>1</v>
@@ -21395,7 +21395,7 @@
         <v>21</v>
       </c>
       <c r="H370">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I370">
         <v>1</v>
@@ -21436,7 +21436,7 @@
         <v>21</v>
       </c>
       <c r="H371">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I371">
         <v>1</v>
@@ -21477,7 +21477,7 @@
         <v>21</v>
       </c>
       <c r="H372">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I372">
         <v>1</v>
@@ -21518,7 +21518,7 @@
         <v>21</v>
       </c>
       <c r="H373">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I373">
         <v>1</v>
@@ -21559,7 +21559,7 @@
         <v>21</v>
       </c>
       <c r="H374">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I374">
         <v>1</v>
@@ -21600,7 +21600,7 @@
         <v>21</v>
       </c>
       <c r="H375">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I375">
         <v>1</v>
@@ -21641,7 +21641,7 @@
         <v>21</v>
       </c>
       <c r="H376">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -21682,7 +21682,7 @@
         <v>21</v>
       </c>
       <c r="H377">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I377">
         <v>1</v>
@@ -21723,7 +21723,7 @@
         <v>21</v>
       </c>
       <c r="H378">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I378">
         <v>1</v>
@@ -21764,7 +21764,7 @@
         <v>21</v>
       </c>
       <c r="H379">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -21805,7 +21805,7 @@
         <v>21</v>
       </c>
       <c r="H380">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I380">
         <v>1</v>
@@ -21846,7 +21846,7 @@
         <v>21</v>
       </c>
       <c r="H381">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -21887,7 +21887,7 @@
         <v>21</v>
       </c>
       <c r="H382">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I382">
         <v>1</v>
@@ -21928,7 +21928,7 @@
         <v>21</v>
       </c>
       <c r="H383">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I383">
         <v>1</v>
@@ -21969,7 +21969,7 @@
         <v>21</v>
       </c>
       <c r="H384">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I384">
         <v>1</v>
@@ -22010,7 +22010,7 @@
         <v>21</v>
       </c>
       <c r="H385">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I385">
         <v>1</v>
@@ -22051,7 +22051,7 @@
         <v>21</v>
       </c>
       <c r="H386">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I386">
         <v>1</v>
@@ -22092,7 +22092,7 @@
         <v>21</v>
       </c>
       <c r="H387">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I387">
         <v>1</v>
@@ -22133,7 +22133,7 @@
         <v>21</v>
       </c>
       <c r="H388">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I388">
         <v>1</v>
@@ -22174,7 +22174,7 @@
         <v>21</v>
       </c>
       <c r="H389">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I389">
         <v>1</v>
@@ -22215,7 +22215,7 @@
         <v>21</v>
       </c>
       <c r="H390">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I390">
         <v>1</v>
@@ -22256,7 +22256,7 @@
         <v>21</v>
       </c>
       <c r="H391">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I391">
         <v>1</v>
@@ -22297,7 +22297,7 @@
         <v>21</v>
       </c>
       <c r="H392">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I392">
         <v>1</v>
@@ -22338,7 +22338,7 @@
         <v>21</v>
       </c>
       <c r="H393">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I393">
         <v>1</v>
@@ -22379,7 +22379,7 @@
         <v>21</v>
       </c>
       <c r="H394">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I394">
         <v>1</v>
@@ -22420,7 +22420,7 @@
         <v>21</v>
       </c>
       <c r="H395">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I395">
         <v>1</v>
@@ -22461,7 +22461,7 @@
         <v>21</v>
       </c>
       <c r="H396">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I396">
         <v>1</v>
@@ -22502,7 +22502,7 @@
         <v>21</v>
       </c>
       <c r="H397">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I397">
         <v>1</v>
@@ -22543,7 +22543,7 @@
         <v>21</v>
       </c>
       <c r="H398">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I398">
         <v>1</v>
@@ -22584,7 +22584,7 @@
         <v>21</v>
       </c>
       <c r="H399">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I399">
         <v>1</v>
@@ -22625,7 +22625,7 @@
         <v>21</v>
       </c>
       <c r="H400">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I400">
         <v>1</v>
@@ -22666,7 +22666,7 @@
         <v>21</v>
       </c>
       <c r="H401">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I401">
         <v>1</v>
@@ -22707,7 +22707,7 @@
         <v>21</v>
       </c>
       <c r="H402">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I402">
         <v>1</v>
@@ -22748,7 +22748,7 @@
         <v>21</v>
       </c>
       <c r="H403">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I403">
         <v>1</v>
@@ -22789,7 +22789,7 @@
         <v>21</v>
       </c>
       <c r="H404">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I404">
         <v>1</v>
@@ -22830,7 +22830,7 @@
         <v>21</v>
       </c>
       <c r="H405">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I405">
         <v>1</v>
@@ -22871,7 +22871,7 @@
         <v>21</v>
       </c>
       <c r="H406">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I406">
         <v>1</v>
@@ -22912,7 +22912,7 @@
         <v>21</v>
       </c>
       <c r="H407">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I407">
         <v>1</v>
@@ -22953,7 +22953,7 @@
         <v>21</v>
       </c>
       <c r="H408">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I408">
         <v>1</v>
@@ -22994,7 +22994,7 @@
         <v>21</v>
       </c>
       <c r="H409">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I409">
         <v>1</v>
@@ -23035,7 +23035,7 @@
         <v>21</v>
       </c>
       <c r="H410">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I410">
         <v>1</v>
@@ -23076,7 +23076,7 @@
         <v>21</v>
       </c>
       <c r="H411">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I411">
         <v>1</v>
@@ -23117,7 +23117,7 @@
         <v>21</v>
       </c>
       <c r="H412">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I412">
         <v>1</v>
@@ -23158,7 +23158,7 @@
         <v>21</v>
       </c>
       <c r="H413">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I413">
         <v>1</v>
@@ -23199,7 +23199,7 @@
         <v>21</v>
       </c>
       <c r="H414">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I414">
         <v>1</v>
@@ -23240,7 +23240,7 @@
         <v>21</v>
       </c>
       <c r="H415">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I415">
         <v>1</v>
@@ -23281,7 +23281,7 @@
         <v>21</v>
       </c>
       <c r="H416">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I416">
         <v>1</v>
@@ -23322,7 +23322,7 @@
         <v>21</v>
       </c>
       <c r="H417">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I417">
         <v>1</v>
@@ -23363,7 +23363,7 @@
         <v>21</v>
       </c>
       <c r="H418">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I418">
         <v>1</v>
@@ -23404,7 +23404,7 @@
         <v>21</v>
       </c>
       <c r="H419">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I419">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         <v>21</v>
       </c>
       <c r="H420">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I420">
         <v>1</v>
@@ -23486,7 +23486,7 @@
         <v>21</v>
       </c>
       <c r="H421">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I421">
         <v>1</v>
@@ -23527,7 +23527,7 @@
         <v>21</v>
       </c>
       <c r="H422">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I422">
         <v>1</v>
@@ -23568,7 +23568,7 @@
         <v>21</v>
       </c>
       <c r="H423">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I423">
         <v>1</v>
@@ -23609,7 +23609,7 @@
         <v>21</v>
       </c>
       <c r="H424">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I424">
         <v>1</v>
@@ -23650,7 +23650,7 @@
         <v>21</v>
       </c>
       <c r="H425">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I425">
         <v>1</v>
@@ -23691,7 +23691,7 @@
         <v>21</v>
       </c>
       <c r="H426">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I426">
         <v>1</v>
@@ -23732,7 +23732,7 @@
         <v>21</v>
       </c>
       <c r="H427">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I427">
         <v>1</v>
@@ -23773,7 +23773,7 @@
         <v>21</v>
       </c>
       <c r="H428">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I428">
         <v>1</v>
@@ -23814,7 +23814,7 @@
         <v>21</v>
       </c>
       <c r="H429">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I429">
         <v>1</v>
@@ -23855,7 +23855,7 @@
         <v>21</v>
       </c>
       <c r="H430">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -23896,7 +23896,7 @@
         <v>21</v>
       </c>
       <c r="H431">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I431">
         <v>1</v>
@@ -23937,7 +23937,7 @@
         <v>21</v>
       </c>
       <c r="H432">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I432">
         <v>1</v>
@@ -23978,7 +23978,7 @@
         <v>21</v>
       </c>
       <c r="H433">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I433">
         <v>1</v>
@@ -24019,7 +24019,7 @@
         <v>21</v>
       </c>
       <c r="H434">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I434">
         <v>1</v>
@@ -24060,7 +24060,7 @@
         <v>21</v>
       </c>
       <c r="H435">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I435">
         <v>1</v>
@@ -24101,7 +24101,7 @@
         <v>21</v>
       </c>
       <c r="H436">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I436">
         <v>1</v>
@@ -24142,7 +24142,7 @@
         <v>21</v>
       </c>
       <c r="H437">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I437">
         <v>1</v>
@@ -24183,7 +24183,7 @@
         <v>21</v>
       </c>
       <c r="H438">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I438">
         <v>1</v>
@@ -24224,7 +24224,7 @@
         <v>21</v>
       </c>
       <c r="H439">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I439">
         <v>1</v>
@@ -24265,7 +24265,7 @@
         <v>21</v>
       </c>
       <c r="H440">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I440">
         <v>1</v>
@@ -24306,7 +24306,7 @@
         <v>21</v>
       </c>
       <c r="H441">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I441">
         <v>1</v>
@@ -24347,7 +24347,7 @@
         <v>21</v>
       </c>
       <c r="H442">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I442">
         <v>1</v>
@@ -24388,7 +24388,7 @@
         <v>21</v>
       </c>
       <c r="H443">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I443">
         <v>1</v>
@@ -24429,7 +24429,7 @@
         <v>21</v>
       </c>
       <c r="H444">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I444">
         <v>1</v>
@@ -24470,7 +24470,7 @@
         <v>21</v>
       </c>
       <c r="H445">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I445">
         <v>1</v>
@@ -24511,7 +24511,7 @@
         <v>21</v>
       </c>
       <c r="H446">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I446">
         <v>1</v>
@@ -24552,7 +24552,7 @@
         <v>21</v>
       </c>
       <c r="H447">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I447">
         <v>1</v>
@@ -24593,7 +24593,7 @@
         <v>21</v>
       </c>
       <c r="H448">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I448">
         <v>1</v>
@@ -24634,7 +24634,7 @@
         <v>21</v>
       </c>
       <c r="H449">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I449">
         <v>1</v>
@@ -24675,7 +24675,7 @@
         <v>21</v>
       </c>
       <c r="H450">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I450">
         <v>1</v>
@@ -24716,7 +24716,7 @@
         <v>21</v>
       </c>
       <c r="H451">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I451">
         <v>1</v>
@@ -24757,7 +24757,7 @@
         <v>21</v>
       </c>
       <c r="H452">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I452">
         <v>1</v>
@@ -24798,7 +24798,7 @@
         <v>21</v>
       </c>
       <c r="H453">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I453">
         <v>1</v>
@@ -24839,7 +24839,7 @@
         <v>21</v>
       </c>
       <c r="H454">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I454">
         <v>1</v>
@@ -24880,7 +24880,7 @@
         <v>21</v>
       </c>
       <c r="H455">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I455">
         <v>1</v>
@@ -24921,7 +24921,7 @@
         <v>21</v>
       </c>
       <c r="H456">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I456">
         <v>1</v>
@@ -24962,7 +24962,7 @@
         <v>21</v>
       </c>
       <c r="H457">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I457">
         <v>1</v>
@@ -25003,7 +25003,7 @@
         <v>21</v>
       </c>
       <c r="H458">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I458">
         <v>1</v>
@@ -25044,7 +25044,7 @@
         <v>21</v>
       </c>
       <c r="H459">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I459">
         <v>1</v>
@@ -25085,7 +25085,7 @@
         <v>21</v>
       </c>
       <c r="H460">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I460">
         <v>1</v>
@@ -25126,7 +25126,7 @@
         <v>21</v>
       </c>
       <c r="H461">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I461">
         <v>1</v>
@@ -25167,7 +25167,7 @@
         <v>21</v>
       </c>
       <c r="H462">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I462">
         <v>1</v>
@@ -25208,7 +25208,7 @@
         <v>21</v>
       </c>
       <c r="H463">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I463">
         <v>1</v>
@@ -25249,7 +25249,7 @@
         <v>21</v>
       </c>
       <c r="H464">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I464">
         <v>1</v>
@@ -25290,7 +25290,7 @@
         <v>21</v>
       </c>
       <c r="H465">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I465">
         <v>1</v>
@@ -25331,7 +25331,7 @@
         <v>21</v>
       </c>
       <c r="H466">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I466">
         <v>1</v>
@@ -25372,7 +25372,7 @@
         <v>21</v>
       </c>
       <c r="H467">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I467">
         <v>1</v>
@@ -25413,7 +25413,7 @@
         <v>21</v>
       </c>
       <c r="H468">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I468">
         <v>1</v>
@@ -25454,7 +25454,7 @@
         <v>21</v>
       </c>
       <c r="H469">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I469">
         <v>1</v>
@@ -25495,7 +25495,7 @@
         <v>21</v>
       </c>
       <c r="H470">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I470">
         <v>1</v>
@@ -25536,7 +25536,7 @@
         <v>21</v>
       </c>
       <c r="H471">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I471">
         <v>1</v>
@@ -25577,7 +25577,7 @@
         <v>21</v>
       </c>
       <c r="H472">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I472">
         <v>1</v>
@@ -25618,7 +25618,7 @@
         <v>21</v>
       </c>
       <c r="H473">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I473">
         <v>1</v>
@@ -25659,7 +25659,7 @@
         <v>21</v>
       </c>
       <c r="H474">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I474">
         <v>1</v>
@@ -25700,7 +25700,7 @@
         <v>21</v>
       </c>
       <c r="H475">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I475">
         <v>1</v>
@@ -25741,7 +25741,7 @@
         <v>21</v>
       </c>
       <c r="H476">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I476">
         <v>1</v>
@@ -25782,7 +25782,7 @@
         <v>21</v>
       </c>
       <c r="H477">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I477">
         <v>1</v>
@@ -25823,7 +25823,7 @@
         <v>21</v>
       </c>
       <c r="H478">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I478">
         <v>1</v>
@@ -25864,7 +25864,7 @@
         <v>21</v>
       </c>
       <c r="H479">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I479">
         <v>1</v>
@@ -25905,7 +25905,7 @@
         <v>21</v>
       </c>
       <c r="H480">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I480">
         <v>1</v>
@@ -25946,7 +25946,7 @@
         <v>21</v>
       </c>
       <c r="H481">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I481">
         <v>1</v>
@@ -25987,7 +25987,7 @@
         <v>21</v>
       </c>
       <c r="H482">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I482">
         <v>1</v>
@@ -26028,7 +26028,7 @@
         <v>21</v>
       </c>
       <c r="H483">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I483">
         <v>1</v>
@@ -26069,7 +26069,7 @@
         <v>21</v>
       </c>
       <c r="H484">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I484">
         <v>1</v>
@@ -26110,7 +26110,7 @@
         <v>21</v>
       </c>
       <c r="H485">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I485">
         <v>1</v>
@@ -26151,7 +26151,7 @@
         <v>21</v>
       </c>
       <c r="H486">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I486">
         <v>1</v>
@@ -26192,7 +26192,7 @@
         <v>21</v>
       </c>
       <c r="H487">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I487">
         <v>1</v>
@@ -26233,7 +26233,7 @@
         <v>21</v>
       </c>
       <c r="H488">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I488">
         <v>1</v>
@@ -26274,7 +26274,7 @@
         <v>21</v>
       </c>
       <c r="H489">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I489">
         <v>1</v>
@@ -26315,7 +26315,7 @@
         <v>21</v>
       </c>
       <c r="H490">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I490">
         <v>1</v>
@@ -26356,7 +26356,7 @@
         <v>21</v>
       </c>
       <c r="H491">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         <v>21</v>
       </c>
       <c r="H492">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I492">
         <v>1</v>
@@ -26438,7 +26438,7 @@
         <v>21</v>
       </c>
       <c r="H493">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I493">
         <v>1</v>
@@ -26479,7 +26479,7 @@
         <v>21</v>
       </c>
       <c r="H494">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I494">
         <v>1</v>
@@ -26520,7 +26520,7 @@
         <v>21</v>
       </c>
       <c r="H495">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I495">
         <v>1</v>
@@ -26561,7 +26561,7 @@
         <v>21</v>
       </c>
       <c r="H496">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I496">
         <v>1</v>
@@ -26602,7 +26602,7 @@
         <v>21</v>
       </c>
       <c r="H497">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I497">
         <v>1</v>
@@ -26643,7 +26643,7 @@
         <v>21</v>
       </c>
       <c r="H498">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>21</v>
       </c>
       <c r="H499">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I499">
         <v>1</v>
@@ -26725,7 +26725,7 @@
         <v>21</v>
       </c>
       <c r="H500">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I500">
         <v>1</v>
@@ -26766,7 +26766,7 @@
         <v>21</v>
       </c>
       <c r="H501">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I501">
         <v>1</v>
@@ -26807,7 +26807,7 @@
         <v>21</v>
       </c>
       <c r="H502">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I502">
         <v>1</v>
@@ -26848,7 +26848,7 @@
         <v>21</v>
       </c>
       <c r="H503">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I503">
         <v>1</v>
@@ -26889,7 +26889,7 @@
         <v>21</v>
       </c>
       <c r="H504">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I504">
         <v>1</v>
@@ -26930,7 +26930,7 @@
         <v>21</v>
       </c>
       <c r="H505">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I505">
         <v>1</v>
@@ -26971,7 +26971,7 @@
         <v>21</v>
       </c>
       <c r="H506">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I506">
         <v>1</v>
@@ -27012,7 +27012,7 @@
         <v>21</v>
       </c>
       <c r="H507">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I507">
         <v>1</v>
@@ -27053,7 +27053,7 @@
         <v>21</v>
       </c>
       <c r="H508">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -27094,7 +27094,7 @@
         <v>21</v>
       </c>
       <c r="H509">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I509">
         <v>1</v>
@@ -27135,7 +27135,7 @@
         <v>21</v>
       </c>
       <c r="H510">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I510">
         <v>1</v>
@@ -27176,7 +27176,7 @@
         <v>21</v>
       </c>
       <c r="H511">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I511">
         <v>1</v>
@@ -27217,7 +27217,7 @@
         <v>21</v>
       </c>
       <c r="H512">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -27258,7 +27258,7 @@
         <v>21</v>
       </c>
       <c r="H513">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I513">
         <v>1</v>
@@ -27299,7 +27299,7 @@
         <v>21</v>
       </c>
       <c r="H514">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I514">
         <v>1</v>
@@ -27340,7 +27340,7 @@
         <v>21</v>
       </c>
       <c r="H515">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I515">
         <v>1</v>
@@ -27381,7 +27381,7 @@
         <v>21</v>
       </c>
       <c r="H516">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I516">
         <v>1</v>
@@ -27422,7 +27422,7 @@
         <v>21</v>
       </c>
       <c r="H517">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I517">
         <v>1</v>
@@ -27463,7 +27463,7 @@
         <v>21</v>
       </c>
       <c r="H518">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I518">
         <v>1</v>
@@ -27504,7 +27504,7 @@
         <v>21</v>
       </c>
       <c r="H519">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I519">
         <v>1</v>
@@ -27545,7 +27545,7 @@
         <v>21</v>
       </c>
       <c r="H520">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I520">
         <v>1</v>
@@ -27586,7 +27586,7 @@
         <v>21</v>
       </c>
       <c r="H521">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I521">
         <v>1</v>
@@ -27627,7 +27627,7 @@
         <v>21</v>
       </c>
       <c r="H522">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I522">
         <v>1</v>
@@ -27668,7 +27668,7 @@
         <v>21</v>
       </c>
       <c r="H523">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I523">
         <v>1</v>
@@ -27709,7 +27709,7 @@
         <v>21</v>
       </c>
       <c r="H524">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I524">
         <v>1</v>
@@ -27750,7 +27750,7 @@
         <v>21</v>
       </c>
       <c r="H525">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I525">
         <v>1</v>
@@ -27791,7 +27791,7 @@
         <v>21</v>
       </c>
       <c r="H526">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I526">
         <v>1</v>
@@ -27832,7 +27832,7 @@
         <v>21</v>
       </c>
       <c r="H527">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I527">
         <v>1</v>
@@ -27873,7 +27873,7 @@
         <v>21</v>
       </c>
       <c r="H528">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I528">
         <v>1</v>
@@ -27914,7 +27914,7 @@
         <v>21</v>
       </c>
       <c r="H529">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I529">
         <v>1</v>
@@ -27955,7 +27955,7 @@
         <v>21</v>
       </c>
       <c r="H530">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I530">
         <v>1</v>
@@ -27996,7 +27996,7 @@
         <v>21</v>
       </c>
       <c r="H531">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I531">
         <v>1</v>
@@ -28037,7 +28037,7 @@
         <v>21</v>
       </c>
       <c r="H532">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I532">
         <v>1</v>
@@ -28078,7 +28078,7 @@
         <v>21</v>
       </c>
       <c r="H533">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I533">
         <v>1</v>
@@ -28119,7 +28119,7 @@
         <v>21</v>
       </c>
       <c r="H534">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I534">
         <v>1</v>
@@ -28160,7 +28160,7 @@
         <v>21</v>
       </c>
       <c r="H535">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I535">
         <v>1</v>
@@ -28201,7 +28201,7 @@
         <v>21</v>
       </c>
       <c r="H536">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I536">
         <v>1</v>
@@ -28242,7 +28242,7 @@
         <v>21</v>
       </c>
       <c r="H537">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I537">
         <v>1</v>
@@ -28283,7 +28283,7 @@
         <v>21</v>
       </c>
       <c r="H538">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I538">
         <v>1</v>
@@ -28324,7 +28324,7 @@
         <v>21</v>
       </c>
       <c r="H539">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I539">
         <v>1</v>
@@ -28365,7 +28365,7 @@
         <v>21</v>
       </c>
       <c r="H540">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I540">
         <v>1</v>
@@ -28406,7 +28406,7 @@
         <v>21</v>
       </c>
       <c r="H541">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I541">
         <v>1</v>
@@ -28447,7 +28447,7 @@
         <v>21</v>
       </c>
       <c r="H542">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I542">
         <v>1</v>
@@ -28488,7 +28488,7 @@
         <v>21</v>
       </c>
       <c r="H543">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I543">
         <v>1</v>
@@ -28529,7 +28529,7 @@
         <v>21</v>
       </c>
       <c r="H544">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I544">
         <v>1</v>
@@ -28570,7 +28570,7 @@
         <v>21</v>
       </c>
       <c r="H545">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I545">
         <v>1</v>
@@ -28611,7 +28611,7 @@
         <v>21</v>
       </c>
       <c r="H546">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I546">
         <v>1</v>
@@ -28652,7 +28652,7 @@
         <v>21</v>
       </c>
       <c r="H547">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I547">
         <v>1</v>
@@ -28693,7 +28693,7 @@
         <v>21</v>
       </c>
       <c r="H548">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I548">
         <v>1</v>
@@ -28734,7 +28734,7 @@
         <v>21</v>
       </c>
       <c r="H549">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I549">
         <v>1</v>
@@ -28775,7 +28775,7 @@
         <v>21</v>
       </c>
       <c r="H550">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I550">
         <v>1</v>
@@ -28816,7 +28816,7 @@
         <v>21</v>
       </c>
       <c r="H551">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I551">
         <v>1</v>
@@ -28857,7 +28857,7 @@
         <v>21</v>
       </c>
       <c r="H552">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I552">
         <v>1</v>
@@ -28898,7 +28898,7 @@
         <v>21</v>
       </c>
       <c r="H553">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I553">
         <v>1</v>
@@ -28939,7 +28939,7 @@
         <v>21</v>
       </c>
       <c r="H554">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I554">
         <v>1</v>
@@ -28980,7 +28980,7 @@
         <v>21</v>
       </c>
       <c r="H555">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I555">
         <v>1</v>
@@ -29021,7 +29021,7 @@
         <v>21</v>
       </c>
       <c r="H556">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I556">
         <v>1</v>
@@ -29062,7 +29062,7 @@
         <v>21</v>
       </c>
       <c r="H557">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I557">
         <v>1</v>
@@ -29103,7 +29103,7 @@
         <v>21</v>
       </c>
       <c r="H558">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I558">
         <v>1</v>
@@ -29144,7 +29144,7 @@
         <v>21</v>
       </c>
       <c r="H559">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I559">
         <v>1</v>
@@ -29185,7 +29185,7 @@
         <v>21</v>
       </c>
       <c r="H560">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I560">
         <v>1</v>
@@ -29226,7 +29226,7 @@
         <v>21</v>
       </c>
       <c r="H561">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I561">
         <v>1</v>
@@ -29267,7 +29267,7 @@
         <v>21</v>
       </c>
       <c r="H562">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I562">
         <v>1</v>
@@ -29308,7 +29308,7 @@
         <v>21</v>
       </c>
       <c r="H563">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I563">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         <v>21</v>
       </c>
       <c r="H564">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I564">
         <v>1</v>
@@ -29390,7 +29390,7 @@
         <v>21</v>
       </c>
       <c r="H565">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I565">
         <v>1</v>
@@ -29431,7 +29431,7 @@
         <v>21</v>
       </c>
       <c r="H566">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I566">
         <v>1</v>
@@ -29472,7 +29472,7 @@
         <v>21</v>
       </c>
       <c r="H567">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I567">
         <v>1</v>
@@ -29513,7 +29513,7 @@
         <v>21</v>
       </c>
       <c r="H568">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I568">
         <v>1</v>
@@ -29554,7 +29554,7 @@
         <v>21</v>
       </c>
       <c r="H569">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I569">
         <v>1</v>
@@ -29595,7 +29595,7 @@
         <v>21</v>
       </c>
       <c r="H570">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I570">
         <v>1</v>
@@ -29636,7 +29636,7 @@
         <v>21</v>
       </c>
       <c r="H571">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I571">
         <v>1</v>
@@ -29677,7 +29677,7 @@
         <v>21</v>
       </c>
       <c r="H572">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I572">
         <v>1</v>
@@ -29718,7 +29718,7 @@
         <v>21</v>
       </c>
       <c r="H573">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I573">
         <v>1</v>
@@ -29759,7 +29759,7 @@
         <v>21</v>
       </c>
       <c r="H574">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I574">
         <v>1</v>
@@ -29800,7 +29800,7 @@
         <v>21</v>
       </c>
       <c r="H575">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I575">
         <v>1</v>
@@ -29841,7 +29841,7 @@
         <v>21</v>
       </c>
       <c r="H576">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I576">
         <v>1</v>
@@ -29882,7 +29882,7 @@
         <v>21</v>
       </c>
       <c r="H577">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I577">
         <v>1</v>
@@ -29923,7 +29923,7 @@
         <v>21</v>
       </c>
       <c r="H578">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I578">
         <v>1</v>
@@ -29964,7 +29964,7 @@
         <v>21</v>
       </c>
       <c r="H579">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I579">
         <v>1</v>
@@ -30005,7 +30005,7 @@
         <v>21</v>
       </c>
       <c r="H580">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I580">
         <v>1</v>
@@ -30046,7 +30046,7 @@
         <v>21</v>
       </c>
       <c r="H581">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I581">
         <v>1</v>
@@ -30087,7 +30087,7 @@
         <v>21</v>
       </c>
       <c r="H582">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I582">
         <v>1</v>
@@ -30128,7 +30128,7 @@
         <v>21</v>
       </c>
       <c r="H583">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I583">
         <v>1</v>
@@ -30169,7 +30169,7 @@
         <v>21</v>
       </c>
       <c r="H584">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I584">
         <v>1</v>
@@ -30210,7 +30210,7 @@
         <v>21</v>
       </c>
       <c r="H585">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I585">
         <v>1</v>
@@ -30251,7 +30251,7 @@
         <v>21</v>
       </c>
       <c r="H586">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I586">
         <v>1</v>
@@ -30333,7 +30333,7 @@
         <v>10</v>
       </c>
       <c r="H588">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I588">
         <v>1</v>
@@ -30415,7 +30415,7 @@
         <v>21</v>
       </c>
       <c r="H590">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I590">
         <v>1</v>
@@ -30456,7 +30456,7 @@
         <v>21</v>
       </c>
       <c r="H591">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I591">
         <v>1</v>
@@ -30497,7 +30497,7 @@
         <v>6</v>
       </c>
       <c r="H592">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I592">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>21</v>
       </c>
       <c r="H593">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I593">
         <v>1</v>
@@ -30579,7 +30579,7 @@
         <v>21</v>
       </c>
       <c r="H594">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I594">
         <v>1</v>
@@ -30620,7 +30620,7 @@
         <v>21</v>
       </c>
       <c r="H595">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I595">
         <v>1</v>
@@ -30661,7 +30661,7 @@
         <v>10</v>
       </c>
       <c r="H596">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I596">
         <v>1</v>
@@ -30702,7 +30702,7 @@
         <v>10</v>
       </c>
       <c r="H597">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I597">
         <v>1</v>
@@ -30743,7 +30743,7 @@
         <v>6</v>
       </c>
       <c r="H598">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I598">
         <v>1</v>
@@ -30784,7 +30784,7 @@
         <v>6</v>
       </c>
       <c r="H599">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I599">
         <v>1</v>
@@ -30825,7 +30825,7 @@
         <v>4</v>
       </c>
       <c r="H600">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I600">
         <v>1</v>
@@ -30866,7 +30866,7 @@
         <v>21</v>
       </c>
       <c r="H601">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I601">
         <v>1</v>
@@ -30907,7 +30907,7 @@
         <v>21</v>
       </c>
       <c r="H602">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I602">
         <v>1</v>
@@ -30948,7 +30948,7 @@
         <v>10</v>
       </c>
       <c r="H603">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I603">
         <v>1</v>
@@ -30989,7 +30989,7 @@
         <v>10</v>
       </c>
       <c r="H604">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I604">
         <v>1</v>
@@ -31030,7 +31030,7 @@
         <v>21</v>
       </c>
       <c r="H605">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I605">
         <v>1</v>
@@ -31071,7 +31071,7 @@
         <v>21</v>
       </c>
       <c r="H606">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I606">
         <v>1</v>
@@ -31112,7 +31112,7 @@
         <v>21</v>
       </c>
       <c r="H607">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I607">
         <v>1</v>
@@ -31153,7 +31153,7 @@
         <v>10</v>
       </c>
       <c r="H608">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I608">
         <v>1</v>
@@ -31194,7 +31194,7 @@
         <v>10</v>
       </c>
       <c r="H609">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I609">
         <v>1</v>
@@ -31235,7 +31235,7 @@
         <v>8</v>
       </c>
       <c r="H610">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I610">
         <v>1</v>
@@ -31317,7 +31317,7 @@
         <v>6</v>
       </c>
       <c r="H612">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I612">
         <v>1</v>
@@ -31358,7 +31358,7 @@
         <v>10</v>
       </c>
       <c r="H613">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I613">
         <v>1</v>
@@ -31399,7 +31399,7 @@
         <v>10</v>
       </c>
       <c r="H614">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I614">
         <v>1</v>
@@ -31440,7 +31440,7 @@
         <v>2</v>
       </c>
       <c r="H615">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I615">
         <v>1</v>
@@ -31481,7 +31481,7 @@
         <v>4</v>
       </c>
       <c r="H616">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I616">
         <v>1</v>
@@ -31522,7 +31522,7 @@
         <v>21</v>
       </c>
       <c r="H617">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I617">
         <v>1</v>
@@ -31563,7 +31563,7 @@
         <v>21</v>
       </c>
       <c r="H618">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I618">
         <v>1</v>
@@ -31604,7 +31604,7 @@
         <v>21</v>
       </c>
       <c r="H619">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I619">
         <v>1</v>
@@ -31645,7 +31645,7 @@
         <v>10</v>
       </c>
       <c r="H620">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I620">
         <v>1</v>
@@ -31686,7 +31686,7 @@
         <v>21</v>
       </c>
       <c r="H621">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I621">
         <v>1</v>
@@ -31727,7 +31727,7 @@
         <v>21</v>
       </c>
       <c r="H622">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I622">
         <v>1</v>
@@ -31768,7 +31768,7 @@
         <v>8</v>
       </c>
       <c r="H623">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I623">
         <v>1</v>
@@ -31809,7 +31809,7 @@
         <v>21</v>
       </c>
       <c r="H624">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I624">
         <v>1</v>
@@ -31850,7 +31850,7 @@
         <v>8</v>
       </c>
       <c r="H625">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I625">
         <v>1</v>
@@ -31891,7 +31891,7 @@
         <v>2</v>
       </c>
       <c r="H626">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I626">
         <v>1</v>
@@ -31932,7 +31932,7 @@
         <v>21</v>
       </c>
       <c r="H627">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I627">
         <v>1</v>
@@ -31973,7 +31973,7 @@
         <v>3</v>
       </c>
       <c r="H628">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I628">
         <v>1</v>
@@ -32014,7 +32014,7 @@
         <v>10</v>
       </c>
       <c r="H629">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I629">
         <v>1</v>
@@ -32055,7 +32055,7 @@
         <v>10</v>
       </c>
       <c r="H630">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I630">
         <v>1</v>
@@ -32096,7 +32096,7 @@
         <v>10</v>
       </c>
       <c r="H631">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I631">
         <v>1</v>
@@ -32137,7 +32137,7 @@
         <v>21</v>
       </c>
       <c r="H632">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I632">
         <v>1</v>
@@ -32219,7 +32219,7 @@
         <v>8</v>
       </c>
       <c r="H634">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I634">
         <v>1</v>
@@ -32260,7 +32260,7 @@
         <v>5</v>
       </c>
       <c r="H635">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I635">
         <v>1</v>
@@ -32301,7 +32301,7 @@
         <v>21</v>
       </c>
       <c r="H636">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I636">
         <v>1</v>
@@ -32342,7 +32342,7 @@
         <v>2</v>
       </c>
       <c r="H637">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I637">
         <v>1</v>
@@ -32383,7 +32383,7 @@
         <v>10</v>
       </c>
       <c r="H638">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I638">
         <v>1</v>
@@ -32424,7 +32424,7 @@
         <v>2</v>
       </c>
       <c r="H639">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I639">
         <v>1</v>
@@ -32465,7 +32465,7 @@
         <v>21</v>
       </c>
       <c r="H640">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I640">
         <v>1</v>
@@ -32506,7 +32506,7 @@
         <v>2</v>
       </c>
       <c r="H641">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -32547,7 +32547,7 @@
         <v>10</v>
       </c>
       <c r="H642">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -32588,7 +32588,7 @@
         <v>2</v>
       </c>
       <c r="H643">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I643">
         <v>1</v>
@@ -32629,7 +32629,7 @@
         <v>10</v>
       </c>
       <c r="H644">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I644">
         <v>1</v>
@@ -32670,7 +32670,7 @@
         <v>21</v>
       </c>
       <c r="H645">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I645">
         <v>1</v>
@@ -32711,7 +32711,7 @@
         <v>2</v>
       </c>
       <c r="H646">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I646">
         <v>1</v>
@@ -32752,7 +32752,7 @@
         <v>2</v>
       </c>
       <c r="H647">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I647">
         <v>1</v>
@@ -32793,7 +32793,7 @@
         <v>2</v>
       </c>
       <c r="H648">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I648">
         <v>1</v>
@@ -32834,7 +32834,7 @@
         <v>21</v>
       </c>
       <c r="H649">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I649">
         <v>1</v>
@@ -32875,7 +32875,7 @@
         <v>21</v>
       </c>
       <c r="H650">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I650">
         <v>1</v>
@@ -32957,7 +32957,7 @@
         <v>21</v>
       </c>
       <c r="H652">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I652">
         <v>1</v>
@@ -32998,7 +32998,7 @@
         <v>10</v>
       </c>
       <c r="H653">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I653">
         <v>1</v>
@@ -33039,7 +33039,7 @@
         <v>21</v>
       </c>
       <c r="H654">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I654">
         <v>1</v>
@@ -33244,7 +33244,7 @@
         <v>2</v>
       </c>
       <c r="H659">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I659">
         <v>1</v>
@@ -33285,7 +33285,7 @@
         <v>2</v>
       </c>
       <c r="H660">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I660">
         <v>1</v>
@@ -33326,7 +33326,7 @@
         <v>21</v>
       </c>
       <c r="H661">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I661">
         <v>1</v>
@@ -33367,7 +33367,7 @@
         <v>10</v>
       </c>
       <c r="H662">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I662">
         <v>1</v>
@@ -33408,7 +33408,7 @@
         <v>10</v>
       </c>
       <c r="H663">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I663">
         <v>1</v>
@@ -33449,7 +33449,7 @@
         <v>21</v>
       </c>
       <c r="H664">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I664">
         <v>1</v>
@@ -33490,7 +33490,7 @@
         <v>5</v>
       </c>
       <c r="H665">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I665">
         <v>1</v>
@@ -33531,7 +33531,7 @@
         <v>21</v>
       </c>
       <c r="H666">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I666">
         <v>1</v>
@@ -33572,7 +33572,7 @@
         <v>21</v>
       </c>
       <c r="H667">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -33613,7 +33613,7 @@
         <v>21</v>
       </c>
       <c r="H668">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -33654,7 +33654,7 @@
         <v>4</v>
       </c>
       <c r="H669">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I669">
         <v>1</v>
@@ -33695,7 +33695,7 @@
         <v>21</v>
       </c>
       <c r="H670">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I670">
         <v>1</v>
@@ -33736,7 +33736,7 @@
         <v>2</v>
       </c>
       <c r="H671">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I671">
         <v>1</v>
@@ -33777,7 +33777,7 @@
         <v>21</v>
       </c>
       <c r="H672">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I672">
         <v>1</v>
@@ -33818,7 +33818,7 @@
         <v>4</v>
       </c>
       <c r="H673">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I673">
         <v>1</v>
@@ -33859,7 +33859,7 @@
         <v>4</v>
       </c>
       <c r="H674">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I674">
         <v>1</v>
@@ -33900,7 +33900,7 @@
         <v>4</v>
       </c>
       <c r="H675">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I675">
         <v>1</v>
@@ -33941,7 +33941,7 @@
         <v>21</v>
       </c>
       <c r="H676">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I676">
         <v>1</v>
@@ -33982,7 +33982,7 @@
         <v>21</v>
       </c>
       <c r="H677">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I677">
         <v>1</v>
@@ -34064,7 +34064,7 @@
         <v>21</v>
       </c>
       <c r="H679">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -34105,7 +34105,7 @@
         <v>5</v>
       </c>
       <c r="H680">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I680">
         <v>1</v>
@@ -34146,7 +34146,7 @@
         <v>21</v>
       </c>
       <c r="H681">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I681">
         <v>1</v>
@@ -34187,7 +34187,7 @@
         <v>2</v>
       </c>
       <c r="H682">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I682">
         <v>1</v>
@@ -34310,7 +34310,7 @@
         <v>10</v>
       </c>
       <c r="H685">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I685">
         <v>1</v>
@@ -34351,7 +34351,7 @@
         <v>4</v>
       </c>
       <c r="H686">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I686">
         <v>1</v>
@@ -34392,7 +34392,7 @@
         <v>4</v>
       </c>
       <c r="H687">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I687">
         <v>1</v>
@@ -34433,7 +34433,7 @@
         <v>10</v>
       </c>
       <c r="H688">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I688">
         <v>1</v>
@@ -34474,7 +34474,7 @@
         <v>21</v>
       </c>
       <c r="H689">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I689">
         <v>1</v>
@@ -34515,7 +34515,7 @@
         <v>21</v>
       </c>
       <c r="H690">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I690">
         <v>1</v>
@@ -34556,7 +34556,7 @@
         <v>21</v>
       </c>
       <c r="H691">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I691">
         <v>1</v>
@@ -34679,7 +34679,7 @@
         <v>21</v>
       </c>
       <c r="H694">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I694">
         <v>1</v>
@@ -34720,7 +34720,7 @@
         <v>10</v>
       </c>
       <c r="H695">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I695">
         <v>1</v>
@@ -34761,7 +34761,7 @@
         <v>21</v>
       </c>
       <c r="H696">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I696">
         <v>1</v>
@@ -34802,7 +34802,7 @@
         <v>21</v>
       </c>
       <c r="H697">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I697">
         <v>1</v>
@@ -34843,7 +34843,7 @@
         <v>2</v>
       </c>
       <c r="H698">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I698">
         <v>1</v>
@@ -34884,7 +34884,7 @@
         <v>2</v>
       </c>
       <c r="H699">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I699">
         <v>1</v>
@@ -34925,7 +34925,7 @@
         <v>10</v>
       </c>
       <c r="H700">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I700">
         <v>1</v>
@@ -34966,7 +34966,7 @@
         <v>21</v>
       </c>
       <c r="H701">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I701">
         <v>1</v>
@@ -35007,7 +35007,7 @@
         <v>21</v>
       </c>
       <c r="H702">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I702">
         <v>1</v>
@@ -35048,7 +35048,7 @@
         <v>21</v>
       </c>
       <c r="H703">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I703">
         <v>1</v>
@@ -35089,7 +35089,7 @@
         <v>21</v>
       </c>
       <c r="H704">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I704">
         <v>1</v>
@@ -35130,7 +35130,7 @@
         <v>21</v>
       </c>
       <c r="H705">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I705">
         <v>1</v>
@@ -35171,7 +35171,7 @@
         <v>21</v>
       </c>
       <c r="H706">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I706">
         <v>1</v>
@@ -35212,7 +35212,7 @@
         <v>21</v>
       </c>
       <c r="H707">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I707">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         <v>21</v>
       </c>
       <c r="H708">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I708">
         <v>1</v>
@@ -35294,7 +35294,7 @@
         <v>21</v>
       </c>
       <c r="H709">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I709">
         <v>1</v>
@@ -35335,7 +35335,7 @@
         <v>21</v>
       </c>
       <c r="H710">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I710">
         <v>1</v>
@@ -35376,7 +35376,7 @@
         <v>21</v>
       </c>
       <c r="H711">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I711">
         <v>1</v>
@@ -35417,7 +35417,7 @@
         <v>21</v>
       </c>
       <c r="H712">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I712">
         <v>1</v>
@@ -35458,7 +35458,7 @@
         <v>21</v>
       </c>
       <c r="H713">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I713">
         <v>1</v>
@@ -35499,7 +35499,7 @@
         <v>21</v>
       </c>
       <c r="H714">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I714">
         <v>1</v>
@@ -35540,7 +35540,7 @@
         <v>21</v>
       </c>
       <c r="H715">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I715">
         <v>1</v>
@@ -35581,7 +35581,7 @@
         <v>21</v>
       </c>
       <c r="H716">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I716">
         <v>1</v>
@@ -35622,7 +35622,7 @@
         <v>21</v>
       </c>
       <c r="H717">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I717">
         <v>1</v>
@@ -35663,7 +35663,7 @@
         <v>21</v>
       </c>
       <c r="H718">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I718">
         <v>1</v>
@@ -35704,7 +35704,7 @@
         <v>21</v>
       </c>
       <c r="H719">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I719">
         <v>1</v>
@@ -35745,7 +35745,7 @@
         <v>21</v>
       </c>
       <c r="H720">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I720">
         <v>1</v>
@@ -35786,7 +35786,7 @@
         <v>21</v>
       </c>
       <c r="H721">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I721">
         <v>1</v>
@@ -35827,7 +35827,7 @@
         <v>21</v>
       </c>
       <c r="H722">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I722">
         <v>1</v>
@@ -35868,7 +35868,7 @@
         <v>21</v>
       </c>
       <c r="H723">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I723">
         <v>1</v>
@@ -35909,7 +35909,7 @@
         <v>21</v>
       </c>
       <c r="H724">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I724">
         <v>1</v>
@@ -35950,7 +35950,7 @@
         <v>21</v>
       </c>
       <c r="H725">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I725">
         <v>1</v>
@@ -35991,7 +35991,7 @@
         <v>21</v>
       </c>
       <c r="H726">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I726">
         <v>1</v>
@@ -36032,7 +36032,7 @@
         <v>21</v>
       </c>
       <c r="H727">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I727">
         <v>1</v>
@@ -36073,7 +36073,7 @@
         <v>21</v>
       </c>
       <c r="H728">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I728">
         <v>1</v>
@@ -36114,7 +36114,7 @@
         <v>21</v>
       </c>
       <c r="H729">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I729">
         <v>1</v>
@@ -36155,7 +36155,7 @@
         <v>21</v>
       </c>
       <c r="H730">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I730">
         <v>1</v>
@@ -36196,7 +36196,7 @@
         <v>21</v>
       </c>
       <c r="H731">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I731">
         <v>1</v>
@@ -36237,7 +36237,7 @@
         <v>21</v>
       </c>
       <c r="H732">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I732">
         <v>1</v>
@@ -36278,7 +36278,7 @@
         <v>21</v>
       </c>
       <c r="H733">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I733">
         <v>1</v>
@@ -36319,7 +36319,7 @@
         <v>21</v>
       </c>
       <c r="H734">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I734">
         <v>1</v>
@@ -36360,7 +36360,7 @@
         <v>21</v>
       </c>
       <c r="H735">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I735">
         <v>1</v>
@@ -36401,7 +36401,7 @@
         <v>21</v>
       </c>
       <c r="H736">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I736">
         <v>1</v>
@@ -36442,7 +36442,7 @@
         <v>21</v>
       </c>
       <c r="H737">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I737">
         <v>1</v>
@@ -36483,7 +36483,7 @@
         <v>21</v>
       </c>
       <c r="H738">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I738">
         <v>1</v>
@@ -36524,7 +36524,7 @@
         <v>21</v>
       </c>
       <c r="H739">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I739">
         <v>1</v>
@@ -36565,7 +36565,7 @@
         <v>21</v>
       </c>
       <c r="H740">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I740">
         <v>1</v>
@@ -36606,7 +36606,7 @@
         <v>21</v>
       </c>
       <c r="H741">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I741">
         <v>1</v>
@@ -36647,7 +36647,7 @@
         <v>21</v>
       </c>
       <c r="H742">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I742">
         <v>1</v>
@@ -36688,7 +36688,7 @@
         <v>21</v>
       </c>
       <c r="H743">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I743">
         <v>1</v>
@@ -36729,7 +36729,7 @@
         <v>21</v>
       </c>
       <c r="H744">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I744">
         <v>1</v>
@@ -36770,7 +36770,7 @@
         <v>21</v>
       </c>
       <c r="H745">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I745">
         <v>1</v>
@@ -36811,7 +36811,7 @@
         <v>21</v>
       </c>
       <c r="H746">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I746">
         <v>1</v>
@@ -36852,7 +36852,7 @@
         <v>21</v>
       </c>
       <c r="H747">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I747">
         <v>1</v>
@@ -36893,7 +36893,7 @@
         <v>21</v>
       </c>
       <c r="H748">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I748">
         <v>1</v>
@@ -36934,7 +36934,7 @@
         <v>21</v>
       </c>
       <c r="H749">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I749">
         <v>1</v>
@@ -36975,7 +36975,7 @@
         <v>21</v>
       </c>
       <c r="H750">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I750">
         <v>1</v>
@@ -37016,7 +37016,7 @@
         <v>21</v>
       </c>
       <c r="H751">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I751">
         <v>1</v>
@@ -37057,7 +37057,7 @@
         <v>21</v>
       </c>
       <c r="H752">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I752">
         <v>1</v>
@@ -37098,7 +37098,7 @@
         <v>21</v>
       </c>
       <c r="H753">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I753">
         <v>1</v>
@@ -37139,7 +37139,7 @@
         <v>21</v>
       </c>
       <c r="H754">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I754">
         <v>1</v>
@@ -37180,7 +37180,7 @@
         <v>21</v>
       </c>
       <c r="H755">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I755">
         <v>1</v>
@@ -37221,7 +37221,7 @@
         <v>21</v>
       </c>
       <c r="H756">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I756">
         <v>1</v>
@@ -37262,7 +37262,7 @@
         <v>21</v>
       </c>
       <c r="H757">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I757">
         <v>1</v>
@@ -37303,7 +37303,7 @@
         <v>21</v>
       </c>
       <c r="H758">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I758">
         <v>1</v>
@@ -37344,7 +37344,7 @@
         <v>21</v>
       </c>
       <c r="H759">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I759">
         <v>1</v>
@@ -37385,7 +37385,7 @@
         <v>21</v>
       </c>
       <c r="H760">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I760">
         <v>1</v>
@@ -37426,7 +37426,7 @@
         <v>21</v>
       </c>
       <c r="H761">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I761">
         <v>1</v>
@@ -37467,7 +37467,7 @@
         <v>21</v>
       </c>
       <c r="H762">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I762">
         <v>1</v>
@@ -37508,7 +37508,7 @@
         <v>21</v>
       </c>
       <c r="H763">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I763">
         <v>1</v>
@@ -37549,7 +37549,7 @@
         <v>21</v>
       </c>
       <c r="H764">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I764">
         <v>1</v>
@@ -37590,7 +37590,7 @@
         <v>21</v>
       </c>
       <c r="H765">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I765">
         <v>1</v>
@@ -37631,7 +37631,7 @@
         <v>21</v>
       </c>
       <c r="H766">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I766">
         <v>1</v>
@@ -37672,7 +37672,7 @@
         <v>21</v>
       </c>
       <c r="H767">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I767">
         <v>1</v>
@@ -37713,7 +37713,7 @@
         <v>21</v>
       </c>
       <c r="H768">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I768">
         <v>1</v>
@@ -37754,7 +37754,7 @@
         <v>21</v>
       </c>
       <c r="H769">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I769">
         <v>1</v>
@@ -37795,7 +37795,7 @@
         <v>21</v>
       </c>
       <c r="H770">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I770">
         <v>1</v>
@@ -37836,7 +37836,7 @@
         <v>21</v>
       </c>
       <c r="H771">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I771">
         <v>1</v>
@@ -37877,7 +37877,7 @@
         <v>21</v>
       </c>
       <c r="H772">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I772">
         <v>1</v>
@@ -37918,7 +37918,7 @@
         <v>21</v>
       </c>
       <c r="H773">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I773">
         <v>1</v>
@@ -37959,7 +37959,7 @@
         <v>21</v>
       </c>
       <c r="H774">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I774">
         <v>1</v>
@@ -38000,7 +38000,7 @@
         <v>21</v>
       </c>
       <c r="H775">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I775">
         <v>1</v>
@@ -38041,7 +38041,7 @@
         <v>21</v>
       </c>
       <c r="H776">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I776">
         <v>1</v>
@@ -38082,7 +38082,7 @@
         <v>21</v>
       </c>
       <c r="H777">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I777">
         <v>1</v>
@@ -38123,7 +38123,7 @@
         <v>21</v>
       </c>
       <c r="H778">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I778">
         <v>1</v>
@@ -38164,7 +38164,7 @@
         <v>21</v>
       </c>
       <c r="H779">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I779">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         <v>21</v>
       </c>
       <c r="H780">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I780">
         <v>1</v>
@@ -38246,7 +38246,7 @@
         <v>21</v>
       </c>
       <c r="H781">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I781">
         <v>1</v>
@@ -38287,7 +38287,7 @@
         <v>21</v>
       </c>
       <c r="H782">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I782">
         <v>1</v>
@@ -38328,7 +38328,7 @@
         <v>21</v>
       </c>
       <c r="H783">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I783">
         <v>1</v>
@@ -38369,7 +38369,7 @@
         <v>21</v>
       </c>
       <c r="H784">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I784">
         <v>1</v>
@@ -38410,7 +38410,7 @@
         <v>21</v>
       </c>
       <c r="H785">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I785">
         <v>1</v>
@@ -38451,7 +38451,7 @@
         <v>21</v>
       </c>
       <c r="H786">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I786">
         <v>1</v>
@@ -38492,7 +38492,7 @@
         <v>21</v>
       </c>
       <c r="H787">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I787">
         <v>1</v>
@@ -38533,7 +38533,7 @@
         <v>21</v>
       </c>
       <c r="H788">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I788">
         <v>1</v>
@@ -38574,7 +38574,7 @@
         <v>21</v>
       </c>
       <c r="H789">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I789">
         <v>1</v>
@@ -38615,7 +38615,7 @@
         <v>21</v>
       </c>
       <c r="H790">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I790">
         <v>1</v>
@@ -38656,7 +38656,7 @@
         <v>21</v>
       </c>
       <c r="H791">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I791">
         <v>1</v>
@@ -38697,7 +38697,7 @@
         <v>21</v>
       </c>
       <c r="H792">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I792">
         <v>1</v>
@@ -38738,7 +38738,7 @@
         <v>21</v>
       </c>
       <c r="H793">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I793">
         <v>1</v>
@@ -38779,7 +38779,7 @@
         <v>21</v>
       </c>
       <c r="H794">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I794">
         <v>1</v>
@@ -38820,7 +38820,7 @@
         <v>21</v>
       </c>
       <c r="H795">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I795">
         <v>1</v>
@@ -38861,7 +38861,7 @@
         <v>21</v>
       </c>
       <c r="H796">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I796">
         <v>1</v>
@@ -38902,7 +38902,7 @@
         <v>21</v>
       </c>
       <c r="H797">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I797">
         <v>1</v>
@@ -38943,7 +38943,7 @@
         <v>21</v>
       </c>
       <c r="H798">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I798">
         <v>1</v>
@@ -38984,7 +38984,7 @@
         <v>21</v>
       </c>
       <c r="H799">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I799">
         <v>1</v>
@@ -39025,7 +39025,7 @@
         <v>21</v>
       </c>
       <c r="H800">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I800">
         <v>1</v>
@@ -39066,7 +39066,7 @@
         <v>21</v>
       </c>
       <c r="H801">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I801">
         <v>1</v>
@@ -39107,7 +39107,7 @@
         <v>21</v>
       </c>
       <c r="H802">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I802">
         <v>1</v>
@@ -39148,7 +39148,7 @@
         <v>21</v>
       </c>
       <c r="H803">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I803">
         <v>1</v>
@@ -39189,7 +39189,7 @@
         <v>21</v>
       </c>
       <c r="H804">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I804">
         <v>1</v>
@@ -39230,7 +39230,7 @@
         <v>21</v>
       </c>
       <c r="H805">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I805">
         <v>1</v>
@@ -39271,7 +39271,7 @@
         <v>21</v>
       </c>
       <c r="H806">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I806">
         <v>1</v>
@@ -39312,7 +39312,7 @@
         <v>21</v>
       </c>
       <c r="H807">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I807">
         <v>1</v>
@@ -39353,7 +39353,7 @@
         <v>21</v>
       </c>
       <c r="H808">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I808">
         <v>1</v>
@@ -39394,7 +39394,7 @@
         <v>21</v>
       </c>
       <c r="H809">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I809">
         <v>1</v>
@@ -39435,7 +39435,7 @@
         <v>21</v>
       </c>
       <c r="H810">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I810">
         <v>1</v>
@@ -39476,7 +39476,7 @@
         <v>21</v>
       </c>
       <c r="H811">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I811">
         <v>1</v>
@@ -39517,7 +39517,7 @@
         <v>21</v>
       </c>
       <c r="H812">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I812">
         <v>1</v>
@@ -39558,7 +39558,7 @@
         <v>21</v>
       </c>
       <c r="H813">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I813">
         <v>1</v>
@@ -39599,7 +39599,7 @@
         <v>21</v>
       </c>
       <c r="H814">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I814">
         <v>1</v>
@@ -39640,7 +39640,7 @@
         <v>21</v>
       </c>
       <c r="H815">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I815">
         <v>1</v>
@@ -39681,7 +39681,7 @@
         <v>21</v>
       </c>
       <c r="H816">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I816">
         <v>1</v>
@@ -39722,7 +39722,7 @@
         <v>21</v>
       </c>
       <c r="H817">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I817">
         <v>1</v>
@@ -39763,7 +39763,7 @@
         <v>21</v>
       </c>
       <c r="H818">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I818">
         <v>1</v>
@@ -39804,7 +39804,7 @@
         <v>21</v>
       </c>
       <c r="H819">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I819">
         <v>1</v>
@@ -39845,7 +39845,7 @@
         <v>21</v>
       </c>
       <c r="H820">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I820">
         <v>1</v>
@@ -39886,7 +39886,7 @@
         <v>21</v>
       </c>
       <c r="H821">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I821">
         <v>1</v>
@@ -39927,7 +39927,7 @@
         <v>21</v>
       </c>
       <c r="H822">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I822">
         <v>1</v>
@@ -39968,7 +39968,7 @@
         <v>21</v>
       </c>
       <c r="H823">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I823">
         <v>1</v>
@@ -40009,7 +40009,7 @@
         <v>21</v>
       </c>
       <c r="H824">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I824">
         <v>1</v>
@@ -40050,7 +40050,7 @@
         <v>21</v>
       </c>
       <c r="H825">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I825">
         <v>1</v>
@@ -40091,7 +40091,7 @@
         <v>21</v>
       </c>
       <c r="H826">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I826">
         <v>1</v>
@@ -40132,7 +40132,7 @@
         <v>21</v>
       </c>
       <c r="H827">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I827">
         <v>1</v>
@@ -40173,7 +40173,7 @@
         <v>21</v>
       </c>
       <c r="H828">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I828">
         <v>1</v>
@@ -40214,7 +40214,7 @@
         <v>21</v>
       </c>
       <c r="H829">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I829">
         <v>1</v>
@@ -40255,7 +40255,7 @@
         <v>21</v>
       </c>
       <c r="H830">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I830">
         <v>1</v>
@@ -40296,7 +40296,7 @@
         <v>21</v>
       </c>
       <c r="H831">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I831">
         <v>1</v>
@@ -40337,7 +40337,7 @@
         <v>21</v>
       </c>
       <c r="H832">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I832">
         <v>1</v>
@@ -40378,7 +40378,7 @@
         <v>21</v>
       </c>
       <c r="H833">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I833">
         <v>1</v>
@@ -40419,7 +40419,7 @@
         <v>21</v>
       </c>
       <c r="H834">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I834">
         <v>1</v>
@@ -40460,7 +40460,7 @@
         <v>21</v>
       </c>
       <c r="H835">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I835">
         <v>1</v>
@@ -40501,7 +40501,7 @@
         <v>21</v>
       </c>
       <c r="H836">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I836">
         <v>1</v>
@@ -40542,7 +40542,7 @@
         <v>21</v>
       </c>
       <c r="H837">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I837">
         <v>1</v>
@@ -40583,7 +40583,7 @@
         <v>21</v>
       </c>
       <c r="H838">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I838">
         <v>1</v>
@@ -40624,7 +40624,7 @@
         <v>21</v>
       </c>
       <c r="H839">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I839">
         <v>1</v>
@@ -40665,7 +40665,7 @@
         <v>21</v>
       </c>
       <c r="H840">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I840">
         <v>1</v>
@@ -40706,7 +40706,7 @@
         <v>21</v>
       </c>
       <c r="H841">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I841">
         <v>1</v>
@@ -40747,7 +40747,7 @@
         <v>21</v>
       </c>
       <c r="H842">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -40788,7 +40788,7 @@
         <v>21</v>
       </c>
       <c r="H843">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I843">
         <v>1</v>
@@ -40829,7 +40829,7 @@
         <v>21</v>
       </c>
       <c r="H844">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I844">
         <v>1</v>
@@ -40870,7 +40870,7 @@
         <v>21</v>
       </c>
       <c r="H845">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I845">
         <v>1</v>
@@ -40911,7 +40911,7 @@
         <v>21</v>
       </c>
       <c r="H846">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I846">
         <v>1</v>
@@ -40952,7 +40952,7 @@
         <v>21</v>
       </c>
       <c r="H847">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I847">
         <v>1</v>
@@ -40993,7 +40993,7 @@
         <v>21</v>
       </c>
       <c r="H848">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I848">
         <v>1</v>
@@ -41034,7 +41034,7 @@
         <v>21</v>
       </c>
       <c r="H849">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I849">
         <v>1</v>
@@ -41075,7 +41075,7 @@
         <v>21</v>
       </c>
       <c r="H850">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I850">
         <v>1</v>
@@ -41116,7 +41116,7 @@
         <v>21</v>
       </c>
       <c r="H851">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I851">
         <v>1</v>
@@ -41157,7 +41157,7 @@
         <v>21</v>
       </c>
       <c r="H852">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I852">
         <v>1</v>
@@ -41198,7 +41198,7 @@
         <v>21</v>
       </c>
       <c r="H853">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I853">
         <v>1</v>
@@ -41239,7 +41239,7 @@
         <v>21</v>
       </c>
       <c r="H854">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I854">
         <v>1</v>
@@ -41280,7 +41280,7 @@
         <v>21</v>
       </c>
       <c r="H855">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I855">
         <v>1</v>
@@ -41321,7 +41321,7 @@
         <v>21</v>
       </c>
       <c r="H856">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I856">
         <v>1</v>
@@ -41362,7 +41362,7 @@
         <v>21</v>
       </c>
       <c r="H857">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I857">
         <v>1</v>
@@ -41403,7 +41403,7 @@
         <v>21</v>
       </c>
       <c r="H858">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I858">
         <v>1</v>
@@ -41444,7 +41444,7 @@
         <v>21</v>
       </c>
       <c r="H859">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I859">
         <v>1</v>
@@ -41485,7 +41485,7 @@
         <v>21</v>
       </c>
       <c r="H860">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I860">
         <v>1</v>
@@ -41526,7 +41526,7 @@
         <v>21</v>
       </c>
       <c r="H861">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I861">
         <v>1</v>
@@ -41567,7 +41567,7 @@
         <v>21</v>
       </c>
       <c r="H862">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I862">
         <v>1</v>
@@ -41608,7 +41608,7 @@
         <v>21</v>
       </c>
       <c r="H863">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I863">
         <v>1</v>
@@ -41649,7 +41649,7 @@
         <v>21</v>
       </c>
       <c r="H864">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I864">
         <v>1</v>
@@ -41690,7 +41690,7 @@
         <v>21</v>
       </c>
       <c r="H865">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I865">
         <v>1</v>
@@ -41731,7 +41731,7 @@
         <v>21</v>
       </c>
       <c r="H866">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I866">
         <v>1</v>
@@ -41772,7 +41772,7 @@
         <v>21</v>
       </c>
       <c r="H867">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I867">
         <v>1</v>
@@ -41813,7 +41813,7 @@
         <v>21</v>
       </c>
       <c r="H868">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I868">
         <v>1</v>
@@ -41854,7 +41854,7 @@
         <v>21</v>
       </c>
       <c r="H869">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I869">
         <v>1</v>
@@ -41895,7 +41895,7 @@
         <v>21</v>
       </c>
       <c r="H870">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I870">
         <v>1</v>
@@ -41936,7 +41936,7 @@
         <v>21</v>
       </c>
       <c r="H871">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I871">
         <v>1</v>
@@ -41977,7 +41977,7 @@
         <v>21</v>
       </c>
       <c r="H872">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I872">
         <v>1</v>
@@ -42018,7 +42018,7 @@
         <v>21</v>
       </c>
       <c r="H873">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I873">
         <v>1</v>
@@ -42059,7 +42059,7 @@
         <v>21</v>
       </c>
       <c r="H874">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I874">
         <v>1</v>
@@ -42100,7 +42100,7 @@
         <v>21</v>
       </c>
       <c r="H875">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I875">
         <v>1</v>
@@ -42141,7 +42141,7 @@
         <v>21</v>
       </c>
       <c r="H876">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I876">
         <v>1</v>
@@ -42182,7 +42182,7 @@
         <v>21</v>
       </c>
       <c r="H877">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I877">
         <v>1</v>
@@ -42223,7 +42223,7 @@
         <v>21</v>
       </c>
       <c r="H878">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I878">
         <v>1</v>
@@ -42264,7 +42264,7 @@
         <v>21</v>
       </c>
       <c r="H879">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I879">
         <v>1</v>
@@ -42305,7 +42305,7 @@
         <v>21</v>
       </c>
       <c r="H880">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I880">
         <v>1</v>
@@ -42346,7 +42346,7 @@
         <v>21</v>
       </c>
       <c r="H881">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I881">
         <v>1</v>
@@ -42387,7 +42387,7 @@
         <v>21</v>
       </c>
       <c r="H882">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I882">
         <v>1</v>
@@ -42428,7 +42428,7 @@
         <v>21</v>
       </c>
       <c r="H883">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I883">
         <v>1</v>
@@ -42469,7 +42469,7 @@
         <v>21</v>
       </c>
       <c r="H884">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I884">
         <v>1</v>
@@ -42510,7 +42510,7 @@
         <v>21</v>
       </c>
       <c r="H885">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I885">
         <v>1</v>
@@ -42551,7 +42551,7 @@
         <v>21</v>
       </c>
       <c r="H886">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I886">
         <v>1</v>
@@ -42592,7 +42592,7 @@
         <v>21</v>
       </c>
       <c r="H887">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I887">
         <v>1</v>
@@ -42633,7 +42633,7 @@
         <v>21</v>
       </c>
       <c r="H888">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I888">
         <v>1</v>
@@ -42674,7 +42674,7 @@
         <v>21</v>
       </c>
       <c r="H889">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I889">
         <v>1</v>
@@ -42715,7 +42715,7 @@
         <v>21</v>
       </c>
       <c r="H890">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I890">
         <v>1</v>
@@ -42756,7 +42756,7 @@
         <v>21</v>
       </c>
       <c r="H891">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I891">
         <v>1</v>
@@ -42797,7 +42797,7 @@
         <v>21</v>
       </c>
       <c r="H892">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I892">
         <v>1</v>
@@ -42838,7 +42838,7 @@
         <v>21</v>
       </c>
       <c r="H893">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I893">
         <v>1</v>
@@ -42879,7 +42879,7 @@
         <v>21</v>
       </c>
       <c r="H894">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I894">
         <v>1</v>
@@ -42920,7 +42920,7 @@
         <v>21</v>
       </c>
       <c r="H895">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I895">
         <v>1</v>
@@ -42961,7 +42961,7 @@
         <v>21</v>
       </c>
       <c r="H896">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I896">
         <v>1</v>
@@ -43002,7 +43002,7 @@
         <v>21</v>
       </c>
       <c r="H897">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I897">
         <v>1</v>
@@ -43043,7 +43043,7 @@
         <v>21</v>
       </c>
       <c r="H898">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I898">
         <v>1</v>
@@ -43084,7 +43084,7 @@
         <v>21</v>
       </c>
       <c r="H899">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I899">
         <v>1</v>
@@ -43125,7 +43125,7 @@
         <v>21</v>
       </c>
       <c r="H900">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I900">
         <v>1</v>
@@ -43166,7 +43166,7 @@
         <v>21</v>
       </c>
       <c r="H901">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I901">
         <v>1</v>
@@ -43207,7 +43207,7 @@
         <v>21</v>
       </c>
       <c r="H902">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I902">
         <v>1</v>
@@ -43248,7 +43248,7 @@
         <v>21</v>
       </c>
       <c r="H903">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I903">
         <v>1</v>
@@ -43289,7 +43289,7 @@
         <v>21</v>
       </c>
       <c r="H904">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I904">
         <v>1</v>
@@ -43330,7 +43330,7 @@
         <v>21</v>
       </c>
       <c r="H905">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I905">
         <v>1</v>
@@ -43371,7 +43371,7 @@
         <v>21</v>
       </c>
       <c r="H906">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I906">
         <v>1</v>
@@ -43412,7 +43412,7 @@
         <v>21</v>
       </c>
       <c r="H907">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I907">
         <v>1</v>
@@ -43453,7 +43453,7 @@
         <v>21</v>
       </c>
       <c r="H908">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I908">
         <v>1</v>
@@ -43494,7 +43494,7 @@
         <v>21</v>
       </c>
       <c r="H909">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I909">
         <v>1</v>
@@ -43535,7 +43535,7 @@
         <v>21</v>
       </c>
       <c r="H910">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I910">
         <v>1</v>
@@ -43576,7 +43576,7 @@
         <v>21</v>
       </c>
       <c r="H911">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I911">
         <v>1</v>
@@ -43617,7 +43617,7 @@
         <v>21</v>
       </c>
       <c r="H912">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I912">
         <v>1</v>
@@ -43658,7 +43658,7 @@
         <v>21</v>
       </c>
       <c r="H913">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I913">
         <v>1</v>
@@ -43699,7 +43699,7 @@
         <v>21</v>
       </c>
       <c r="H914">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -43740,7 +43740,7 @@
         <v>21</v>
       </c>
       <c r="H915">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I915">
         <v>1</v>
@@ -43781,7 +43781,7 @@
         <v>21</v>
       </c>
       <c r="H916">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I916">
         <v>1</v>
@@ -43822,7 +43822,7 @@
         <v>21</v>
       </c>
       <c r="H917">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I917">
         <v>1</v>
@@ -43863,7 +43863,7 @@
         <v>21</v>
       </c>
       <c r="H918">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I918">
         <v>1</v>
@@ -43904,7 +43904,7 @@
         <v>21</v>
       </c>
       <c r="H919">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I919">
         <v>1</v>
@@ -43945,7 +43945,7 @@
         <v>21</v>
       </c>
       <c r="H920">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I920">
         <v>1</v>
@@ -43986,7 +43986,7 @@
         <v>21</v>
       </c>
       <c r="H921">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I921">
         <v>1</v>
@@ -44027,7 +44027,7 @@
         <v>21</v>
       </c>
       <c r="H922">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I922">
         <v>1</v>
@@ -44068,7 +44068,7 @@
         <v>21</v>
       </c>
       <c r="H923">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I923">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         <v>21</v>
       </c>
       <c r="H924">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I924">
         <v>1</v>
@@ -44150,7 +44150,7 @@
         <v>21</v>
       </c>
       <c r="H925">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I925">
         <v>1</v>
@@ -44191,7 +44191,7 @@
         <v>21</v>
       </c>
       <c r="H926">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I926">
         <v>1</v>
@@ -44232,7 +44232,7 @@
         <v>21</v>
       </c>
       <c r="H927">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I927">
         <v>1</v>
@@ -44273,7 +44273,7 @@
         <v>21</v>
       </c>
       <c r="H928">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I928">
         <v>1</v>
@@ -44314,7 +44314,7 @@
         <v>21</v>
       </c>
       <c r="H929">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I929">
         <v>1</v>
@@ -44355,7 +44355,7 @@
         <v>21</v>
       </c>
       <c r="H930">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I930">
         <v>1</v>
@@ -44396,7 +44396,7 @@
         <v>21</v>
       </c>
       <c r="H931">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I931">
         <v>1</v>
@@ -44437,7 +44437,7 @@
         <v>21</v>
       </c>
       <c r="H932">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I932">
         <v>1</v>
@@ -44478,7 +44478,7 @@
         <v>21</v>
       </c>
       <c r="H933">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I933">
         <v>1</v>
@@ -44519,7 +44519,7 @@
         <v>21</v>
       </c>
       <c r="H934">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I934">
         <v>1</v>
@@ -44560,7 +44560,7 @@
         <v>21</v>
       </c>
       <c r="H935">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I935">
         <v>1</v>
@@ -44601,7 +44601,7 @@
         <v>21</v>
       </c>
       <c r="H936">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I936">
         <v>1</v>
@@ -44642,7 +44642,7 @@
         <v>21</v>
       </c>
       <c r="H937">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I937">
         <v>1</v>
@@ -44683,7 +44683,7 @@
         <v>4</v>
       </c>
       <c r="H938">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I938">
         <v>1</v>
@@ -44724,7 +44724,7 @@
         <v>3</v>
       </c>
       <c r="H939">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I939">
         <v>1</v>
@@ -44765,7 +44765,7 @@
         <v>6</v>
       </c>
       <c r="H940">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I940">
         <v>1</v>
